--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="700" windowWidth="32180" windowHeight="18940"/>
+    <workbookView xWindow="1560" yWindow="700" windowWidth="32180" windowHeight="18940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
-    <sheet name="Themes Page" sheetId="1" r:id="rId2"/>
+    <sheet name="Statbank" sheetId="3" r:id="rId2"/>
+    <sheet name="discontinued_politcal football" sheetId="4" r:id="rId3"/>
+    <sheet name="Themes Page" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
   <si>
     <t>Chart No</t>
   </si>
@@ -404,13 +406,148 @@
   </si>
   <si>
     <t>Rename File?</t>
+  </si>
+  <si>
+    <t>CLIMATE</t>
+  </si>
+  <si>
+    <t>Google Table</t>
+  </si>
+  <si>
+    <t>JSON table</t>
+  </si>
+  <si>
+    <t>Key Tables</t>
+  </si>
+  <si>
+    <t>MTM01 - Rainfall by Meteorological Weather Station, Month and Statistic (1958M01-2019M12) - Modified on 06/01/2020</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>MTM02 - Temperature by Meteorological Weather Station, Month and Statistic (1958M01-2019M12) - Modified on 06/01/2020</t>
+  </si>
+  <si>
+    <t>MTM03 - Sunshine by Meteorological Weather Station, Month and Statistic (1958M01-2019M12) - Modified on 06/01/2020</t>
+  </si>
+  <si>
+    <t>Current Tables</t>
+  </si>
+  <si>
+    <t>MTM04 - Wind, Maximum Gale Gust (&gt;33.5 Knots) by Meteorological Weather Station and Month (1958M01-2019M12) - Modified on 06/01/2020</t>
+  </si>
+  <si>
+    <t>ICA77 - When Persons last used the Internet by Region, Frequency of Use and Year (2017-2019) - Modified on 24/10/2019</t>
+  </si>
+  <si>
+    <t>ICT USAGE BY ENTERPRISES, HOUSEHOLDS AND PERSONS</t>
+  </si>
+  <si>
+    <t>ICA55 - Persons aged 18 years and over by Purchases Made Online, Region and Year (2011-2019) - Modified on 24/10/2019</t>
+  </si>
+  <si>
+    <t>ICA79 - How often Persons used the Internet by Frequency of Use, Region and Year (2017-2019) - Modified on 24/10/2019</t>
+  </si>
+  <si>
+    <t>ICA46 - Households who have Internet but do not have Broadband Connection by Household Composition, Year and Statistic (2007-2009) - Modified on 02/12/2011</t>
+  </si>
+  <si>
+    <t>ICA47 - Households who have Internet but do not have Broadband Connection by Persons Employed in Household, Year and Statistic (2007-2009) - Modified on 02/12/2011</t>
+  </si>
+  <si>
+    <t>ICA48 - Households who have Internet but do not have Broadband Connection by Population, Year and Statistic (2007-2009) - Modified on 02/12/2011</t>
+  </si>
+  <si>
+    <t>ICA49 - Households who have Internet but do not have Broadband Connection by Region, Year and Statistic (2007-2009) - Modified on 02/12/2011</t>
+  </si>
+  <si>
+    <t>HOUSE PRICES</t>
+  </si>
+  <si>
+    <t>HPM02 - Residential Dwelling Property Transactions by County, Dwelling Status, Stamp Duty Event, Type of Buyer, Type of Sale, Month and Statistic (2010M01-2019M11) - Modified on 15/01/2020</t>
+  </si>
+  <si>
+    <t>HPM03 - Market-based Household Purchases of Residential Dwellings by Dwelling Status, Stamp Duty Event, RPPI Region, Type of Buyer, Month and Statistic (2010M01-2019M11) - Modified on 15/01/2020</t>
+  </si>
+  <si>
+    <t>HPM04 - Market-based Household Purchases of Residential Dwellings by Dwelling Status, Eircode Output, Stamp Duty Event, Type of Buyer, Month and Statistic (2010M01-2019M11) - Modified on 15/01/2020</t>
+  </si>
+  <si>
+    <t>HPM05 - Market-based Household Purchases of Residential Dwellings by Type of Dwelling, Dwelling Status, Stamp Duty Event, RPPI Region, Month and Statistic (2010M01-2019M11) - Modified on 15/01/2020</t>
+  </si>
+  <si>
+    <t>HPM06 - Residential Property Price Index by Type of Residential Property, Month and Statistic (2005M01-2019M11) - Modified on 15/01/2020</t>
+  </si>
+  <si>
+    <t>HPA02 - Residential Dwelling Property Transactions by County, Dwelling Status, Stamp Duty Event, Type of Buyer, Type of Sale, Year and Statistic (2010-2018) - Modified on 13/02/2019</t>
+  </si>
+  <si>
+    <t>HPA03 - Market-based Household Purchases of Residential Dwellings by Dwelling Status, Stamp Duty Event, RPPI Region, Type of Buyer, Year and Statistic (2010-2018) - Modified on 13/02/2019</t>
+  </si>
+  <si>
+    <t>HPA04 - Market-based Household Purchases of Residential Dwellings by Dwelling Status, Eircode Output, Stamp Duty Event, Type of Buyer, Year and Statistic (2010-2018) - Modified on 13/02/2019</t>
+  </si>
+  <si>
+    <t>HPA05 - Market-based Household Purchases of Residential Dwellings by Type of Dwelling, Dwelling Status, Stamp Duty Event, RPPI Region, Year and Statistic (2010-2018) - Modified on 13/02/2019</t>
+  </si>
+  <si>
+    <t>HPA06 - Residential Property Price Index by Type of Residential Property, Year and Statistic (2005-2018) - Modified on 13/02/2019</t>
+  </si>
+  <si>
+    <t>COUNTY INCOMES AND REGIONAL ACCOUNTS</t>
+  </si>
+  <si>
+    <t>CIA02 - Estimates of Household Income by County and Region, Year and Statistic (2000-2016) - Modified on 02/04/2019</t>
+  </si>
+  <si>
+    <t>RAA06 - Gross Value Addded by Region, Year and Statistic (2000-2016) - Modified on 03/04/2019</t>
+  </si>
+  <si>
+    <t>CIA01 - Estimates of Household Income by County and Region, Year and Statistic (2000-2015) - Modified on 26/02/2018</t>
+  </si>
+  <si>
+    <t>RAA01 - Gross Value Added (GVA) by Region, Year and Statistic (2000-2015) - Modified on 26/02/2018</t>
+  </si>
+  <si>
+    <t>GOAL 1 - NO POVERTY</t>
+  </si>
+  <si>
+    <t>G0101 - SDG 1.1.1 Proportion of the Population in Consistent Poverty by NUTS 3 Regions and Year (2004-2017) - Modified on 28/03/2019</t>
+  </si>
+  <si>
+    <t>G0102 - SDG 1.2.1 Proportion of the Population Living below the National Poverty Line by NUTS 3 Regions and Year (2004-2017) - Modified on 28/03/2019</t>
+  </si>
+  <si>
+    <t>G0103 - SDG 1.2.2 Deprivation Rate by NUTS 3 Regions and Year (2004-2017) - Modified on 28/03/2019</t>
+  </si>
+  <si>
+    <t>G0104 - SDG 1.3.1 Proportion of the population receiving Social Welfare Payments by County, Year and Statistic (2007-2016) - Modified on 28/03/2019</t>
+  </si>
+  <si>
+    <t>G0105 - SDG 1.4.1 Dwelling Facilities by NUTS 3 Regions, Year and Statistic (2016-2016) - Modified on 19/02/2019</t>
+  </si>
+  <si>
+    <t>G0106 - SDG 1.4.1 Dwelling Facilities by County, Year and Statistic (2016-2016) - Modified on 19/02/2019</t>
+  </si>
+  <si>
+    <t>G0107 - SDG 1.4.2 Proportion of total adult population with secure tenure rights to land by NUTS 3 Regions, Year and Statistic (2016-2016) - Modified on 21/02/2019</t>
+  </si>
+  <si>
+    <t>G0108 - SDG 1.4.2 Proportion of total adult population with secure tenure rights to land by County, Year and Statistic (2016-2016) - Modified on 21/02/2019</t>
+  </si>
+  <si>
+    <t>G0112 - SDG 1.5.4 Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies by State and Year (2018-2018) - Modified on 11/04/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +623,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF1D1D1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF1D1D1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -567,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -605,6 +763,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
@@ -957,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1128,6 +1289,638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A61:A62"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="A19" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="A24" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="C20" r:id="rId21"/>
+    <hyperlink ref="A32" r:id="rId22"/>
+    <hyperlink ref="B32" r:id="rId23"/>
+    <hyperlink ref="C32" r:id="rId24"/>
+    <hyperlink ref="A33" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="C33" r:id="rId27"/>
+    <hyperlink ref="A34" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="C34" r:id="rId30"/>
+    <hyperlink ref="A35" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="C35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="C36" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="B38" r:id="rId38"/>
+    <hyperlink ref="C38" r:id="rId39"/>
+    <hyperlink ref="A39" r:id="rId40"/>
+    <hyperlink ref="B39" r:id="rId41"/>
+    <hyperlink ref="C39" r:id="rId42"/>
+    <hyperlink ref="A40" r:id="rId43"/>
+    <hyperlink ref="B40" r:id="rId44"/>
+    <hyperlink ref="C40" r:id="rId45"/>
+    <hyperlink ref="A41" r:id="rId46"/>
+    <hyperlink ref="B41" r:id="rId47"/>
+    <hyperlink ref="C41" r:id="rId48"/>
+    <hyperlink ref="A42" r:id="rId49"/>
+    <hyperlink ref="B42" r:id="rId50"/>
+    <hyperlink ref="C42" r:id="rId51"/>
+    <hyperlink ref="A50" r:id="rId52"/>
+    <hyperlink ref="B50" r:id="rId53"/>
+    <hyperlink ref="C50" r:id="rId54"/>
+    <hyperlink ref="A51" r:id="rId55"/>
+    <hyperlink ref="B51" r:id="rId56"/>
+    <hyperlink ref="C51" r:id="rId57"/>
+    <hyperlink ref="A54" r:id="rId58"/>
+    <hyperlink ref="B54" r:id="rId59"/>
+    <hyperlink ref="C54" r:id="rId60"/>
+    <hyperlink ref="A55" r:id="rId61"/>
+    <hyperlink ref="B55" r:id="rId62"/>
+    <hyperlink ref="C55" r:id="rId63"/>
+    <hyperlink ref="A63" r:id="rId64"/>
+    <hyperlink ref="B63" r:id="rId65"/>
+    <hyperlink ref="C63" r:id="rId66"/>
+    <hyperlink ref="A64" r:id="rId67"/>
+    <hyperlink ref="B64" r:id="rId68"/>
+    <hyperlink ref="C64" r:id="rId69"/>
+    <hyperlink ref="A65" r:id="rId70"/>
+    <hyperlink ref="B65" r:id="rId71"/>
+    <hyperlink ref="C65" r:id="rId72"/>
+    <hyperlink ref="A66" r:id="rId73"/>
+    <hyperlink ref="B66" r:id="rId74"/>
+    <hyperlink ref="C66" r:id="rId75"/>
+    <hyperlink ref="A67" r:id="rId76"/>
+    <hyperlink ref="B67" r:id="rId77"/>
+    <hyperlink ref="C67" r:id="rId78"/>
+    <hyperlink ref="A68" r:id="rId79"/>
+    <hyperlink ref="B68" r:id="rId80"/>
+    <hyperlink ref="C68" r:id="rId81"/>
+    <hyperlink ref="A69" r:id="rId82"/>
+    <hyperlink ref="B69" r:id="rId83"/>
+    <hyperlink ref="C69" r:id="rId84"/>
+    <hyperlink ref="A70" r:id="rId85"/>
+    <hyperlink ref="B70" r:id="rId86"/>
+    <hyperlink ref="C70" r:id="rId87"/>
+    <hyperlink ref="A72" r:id="rId88"/>
+    <hyperlink ref="B72" r:id="rId89"/>
+    <hyperlink ref="C72" r:id="rId90"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="700" windowWidth="32180" windowHeight="18940" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="189">
   <si>
     <t>Chart No</t>
   </si>
@@ -417,9 +417,6 @@
     <t>JSON table</t>
   </si>
   <si>
-    <t>Key Tables</t>
-  </si>
-  <si>
     <t>MTM01 - Rainfall by Meteorological Weather Station, Month and Statistic (1958M01-2019M12) - Modified on 06/01/2020</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>MTM03 - Sunshine by Meteorological Weather Station, Month and Statistic (1958M01-2019M12) - Modified on 06/01/2020</t>
   </si>
   <si>
-    <t>Current Tables</t>
-  </si>
-  <si>
     <t>MTM04 - Wind, Maximum Gale Gust (&gt;33.5 Knots) by Meteorological Weather Station and Month (1958M01-2019M12) - Modified on 06/01/2020</t>
   </si>
   <si>
@@ -541,13 +535,88 @@
   </si>
   <si>
     <t>G0112 - SDG 1.5.4 Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies by State and Year (2018-2018) - Modified on 11/04/2019</t>
+  </si>
+  <si>
+    <t>ED123 - Nationality of Pupils attending Primary School by County, Nationality of Pupil and Year (2017-2019) - Modified on 28/06/2019</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF EDUCATION AND SKILLS</t>
+  </si>
+  <si>
+    <t>ED126 - Pupils attending Mainstream Primary Schools by County, Ethos, Year and Statistic (2017-2019) - Modified on 27/06/2019</t>
+  </si>
+  <si>
+    <t>ED133 - Pupils enrolled in Second-Level Schools by County, Nationality of Pupil and Year (2000-2019) - Modified on 27/06/2019</t>
+  </si>
+  <si>
+    <t>EDA43 - Early Start Pre-school Programmes by County, Year and Statistic (2000-2019) - Modified on 19/06/2019</t>
+  </si>
+  <si>
+    <t>EDA56 - National Schools by County, Year and Statistic (1995-2019) - Modified on 03/07/2019</t>
+  </si>
+  <si>
+    <t>EDA57 - National School Pupils by County, School Programme, Year and Statistic (1995-2019) - Modified on 19/06/2019</t>
+  </si>
+  <si>
+    <t>EDA69 - Second Level Schools and Pupils by County, Type of School, Year and Statistic (2000-2019) - Modified on 19/06/2019</t>
+  </si>
+  <si>
+    <t>EDA98 - Students from Ireland and Northern Ireland by County of Origin, County of Study and Year (2000-2017) - Modified on 19/12/2017</t>
+  </si>
+  <si>
+    <t>EDA99 - Students Enrolled in and Entrants to Third Level Courses by Institution, Year and Statistic (2000-2017) - Modified on 19/12/2017</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL TENANCIES BOARD (PRTB)</t>
+  </si>
+  <si>
+    <t>RIA02 - RTB Average Monthly Rent Report by Number of Bedrooms, Property Type, Location and Year (2008-2018) - Modified on 19/12/2019</t>
+  </si>
+  <si>
+    <t>RIH02 - RTB Average Monthly Rent Report by Number of Bedrooms, Property Type, Location and HalfYear (2008H1-2019H1) - Modified on 19/12/2019</t>
+  </si>
+  <si>
+    <t>RIQ02 - RTB Average Monthly Rent Report by Number of Bedrooms, Property Type, Location and Quarter (2007Q4-2019Q3) - Modified on 19/12/2019</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HOUSING, PLANNING, COMMUNITY AND LOCAL GOVERNMENT</t>
+  </si>
+  <si>
+    <t>HSA10 - New House Registrations by County and Year (1978-2018) - Modified on 05/03/2019</t>
+  </si>
+  <si>
+    <t>HSM13 - Commencement Notices by Local Authority, Residential Units Commenced and Month (2016M04-2019M09) - Modified on 12/11/2019</t>
+  </si>
+  <si>
+    <t>HSQ10 - New House Registrations by County and Quarter (1994Q1-2019Q3) - Modified on 12/11/2019</t>
+  </si>
+  <si>
+    <t>HSQ13 - Local Authority Loan Arrears by Local Authority, Quarter and Statistic (2015Q4-2019Q2) - Modified on 12/11/2019</t>
+  </si>
+  <si>
+    <t>NATIONAL ROADS AUTHORITY</t>
+  </si>
+  <si>
+    <t>NRA01 - National Road Length by Type of Carriageway and Year (2004-2018) - Modified on 14/11/2019</t>
+  </si>
+  <si>
+    <t>NRA03 - National Route Length by Local Authority, Type of Carriageway and Year (2015-2018) - Modified on 19/11/2019</t>
+  </si>
+  <si>
+    <t>ROA15 - Persons Killed and Injured by County, Year and Statistic (2001-2018) - Modified on 29/10/2019</t>
+  </si>
+  <si>
+    <t>ROA26 - Current Driving Licences by Age Group, Licensing Authority, Year and Statistic (2013-2018) - Modified on 29/10/2019</t>
+  </si>
+  <si>
+    <t>ROA27 - Traffic Collisions and Casualities by County, Year and Statistic (2013-2017) - Modified on 22/11/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,13 +707,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF1D1D1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -725,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -765,7 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
@@ -1290,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2 A4:A7 A11:A12 A14:A16 A18 A21:A23 A25:A26 A28:A31 A37 A43:A44 A46:A49 A52:A53 A56:A57 A59 A61:A62 A71 A73:A74 A79 A81 A83 A85 A87 A90 A92:A95 A99:A101 A103:A106 A108 A112:A113 A115:A118 A121:A122 A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,543 +1365,728 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="B1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
+      <c r="A49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>124</v>
+      <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>127</v>
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A61:A62"/>
-  </mergeCells>
+  <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="A19" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="A24" r:id="rId16"/>
-    <hyperlink ref="B24" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="B20" r:id="rId20"/>
-    <hyperlink ref="C20" r:id="rId21"/>
-    <hyperlink ref="A32" r:id="rId22"/>
-    <hyperlink ref="B32" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="A33" r:id="rId25"/>
-    <hyperlink ref="B33" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="A34" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="C34" r:id="rId30"/>
-    <hyperlink ref="A35" r:id="rId31"/>
-    <hyperlink ref="B35" r:id="rId32"/>
-    <hyperlink ref="C35" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="C36" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="B38" r:id="rId38"/>
-    <hyperlink ref="C38" r:id="rId39"/>
-    <hyperlink ref="A39" r:id="rId40"/>
-    <hyperlink ref="B39" r:id="rId41"/>
-    <hyperlink ref="C39" r:id="rId42"/>
-    <hyperlink ref="A40" r:id="rId43"/>
-    <hyperlink ref="B40" r:id="rId44"/>
-    <hyperlink ref="C40" r:id="rId45"/>
-    <hyperlink ref="A41" r:id="rId46"/>
-    <hyperlink ref="B41" r:id="rId47"/>
-    <hyperlink ref="C41" r:id="rId48"/>
-    <hyperlink ref="A42" r:id="rId49"/>
-    <hyperlink ref="B42" r:id="rId50"/>
-    <hyperlink ref="C42" r:id="rId51"/>
-    <hyperlink ref="A50" r:id="rId52"/>
-    <hyperlink ref="B50" r:id="rId53"/>
-    <hyperlink ref="C50" r:id="rId54"/>
-    <hyperlink ref="A51" r:id="rId55"/>
-    <hyperlink ref="B51" r:id="rId56"/>
-    <hyperlink ref="C51" r:id="rId57"/>
-    <hyperlink ref="A54" r:id="rId58"/>
-    <hyperlink ref="B54" r:id="rId59"/>
-    <hyperlink ref="C54" r:id="rId60"/>
-    <hyperlink ref="A55" r:id="rId61"/>
-    <hyperlink ref="B55" r:id="rId62"/>
-    <hyperlink ref="C55" r:id="rId63"/>
-    <hyperlink ref="A63" r:id="rId64"/>
-    <hyperlink ref="B63" r:id="rId65"/>
-    <hyperlink ref="C63" r:id="rId66"/>
-    <hyperlink ref="A64" r:id="rId67"/>
-    <hyperlink ref="B64" r:id="rId68"/>
-    <hyperlink ref="C64" r:id="rId69"/>
-    <hyperlink ref="A65" r:id="rId70"/>
-    <hyperlink ref="B65" r:id="rId71"/>
-    <hyperlink ref="C65" r:id="rId72"/>
-    <hyperlink ref="A66" r:id="rId73"/>
-    <hyperlink ref="B66" r:id="rId74"/>
-    <hyperlink ref="C66" r:id="rId75"/>
-    <hyperlink ref="A67" r:id="rId76"/>
-    <hyperlink ref="B67" r:id="rId77"/>
-    <hyperlink ref="C67" r:id="rId78"/>
-    <hyperlink ref="A68" r:id="rId79"/>
-    <hyperlink ref="B68" r:id="rId80"/>
-    <hyperlink ref="C68" r:id="rId81"/>
-    <hyperlink ref="A69" r:id="rId82"/>
-    <hyperlink ref="B69" r:id="rId83"/>
-    <hyperlink ref="C69" r:id="rId84"/>
-    <hyperlink ref="A70" r:id="rId85"/>
-    <hyperlink ref="B70" r:id="rId86"/>
-    <hyperlink ref="C70" r:id="rId87"/>
-    <hyperlink ref="A72" r:id="rId88"/>
-    <hyperlink ref="B72" r:id="rId89"/>
-    <hyperlink ref="C72" r:id="rId90"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16"/>
+    <hyperlink ref="A13" r:id="rId17"/>
+    <hyperlink ref="C13" r:id="rId18"/>
+    <hyperlink ref="A14" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20"/>
+    <hyperlink ref="A15" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="A16" r:id="rId23"/>
+    <hyperlink ref="C16" r:id="rId24"/>
+    <hyperlink ref="A17" r:id="rId25"/>
+    <hyperlink ref="C17" r:id="rId26"/>
+    <hyperlink ref="A18" r:id="rId27"/>
+    <hyperlink ref="C18" r:id="rId28"/>
+    <hyperlink ref="A19" r:id="rId29"/>
+    <hyperlink ref="C19" r:id="rId30"/>
+    <hyperlink ref="A20" r:id="rId31"/>
+    <hyperlink ref="C20" r:id="rId32"/>
+    <hyperlink ref="A21" r:id="rId33"/>
+    <hyperlink ref="C21" r:id="rId34"/>
+    <hyperlink ref="A23" r:id="rId35"/>
+    <hyperlink ref="C23" r:id="rId36"/>
+    <hyperlink ref="A24" r:id="rId37"/>
+    <hyperlink ref="C24" r:id="rId38"/>
+    <hyperlink ref="A25" r:id="rId39"/>
+    <hyperlink ref="C25" r:id="rId40"/>
+    <hyperlink ref="A26" r:id="rId41"/>
+    <hyperlink ref="C26" r:id="rId42"/>
+    <hyperlink ref="A29" r:id="rId43"/>
+    <hyperlink ref="C29" r:id="rId44"/>
+    <hyperlink ref="A30" r:id="rId45"/>
+    <hyperlink ref="C30" r:id="rId46"/>
+    <hyperlink ref="A31" r:id="rId47"/>
+    <hyperlink ref="C31" r:id="rId48"/>
+    <hyperlink ref="A32" r:id="rId49"/>
+    <hyperlink ref="C32" r:id="rId50"/>
+    <hyperlink ref="A33" r:id="rId51"/>
+    <hyperlink ref="C33" r:id="rId52"/>
+    <hyperlink ref="A34" r:id="rId53"/>
+    <hyperlink ref="C34" r:id="rId54"/>
+    <hyperlink ref="A35" r:id="rId55"/>
+    <hyperlink ref="C35" r:id="rId56"/>
+    <hyperlink ref="A36" r:id="rId57"/>
+    <hyperlink ref="C36" r:id="rId58"/>
+    <hyperlink ref="A37" r:id="rId59"/>
+    <hyperlink ref="C37" r:id="rId60"/>
+    <hyperlink ref="A39" r:id="rId61"/>
+    <hyperlink ref="C39" r:id="rId62"/>
+    <hyperlink ref="A40" r:id="rId63"/>
+    <hyperlink ref="C40" r:id="rId64"/>
+    <hyperlink ref="A41" r:id="rId65"/>
+    <hyperlink ref="C41" r:id="rId66"/>
+    <hyperlink ref="A42" r:id="rId67"/>
+    <hyperlink ref="C42" r:id="rId68"/>
+    <hyperlink ref="A43" r:id="rId69"/>
+    <hyperlink ref="C43" r:id="rId70"/>
+    <hyperlink ref="A44" r:id="rId71"/>
+    <hyperlink ref="C44" r:id="rId72"/>
+    <hyperlink ref="A45" r:id="rId73"/>
+    <hyperlink ref="C45" r:id="rId74"/>
+    <hyperlink ref="A46" r:id="rId75"/>
+    <hyperlink ref="C46" r:id="rId76"/>
+    <hyperlink ref="A47" r:id="rId77"/>
+    <hyperlink ref="C47" r:id="rId78"/>
+    <hyperlink ref="A49" r:id="rId79"/>
+    <hyperlink ref="C49" r:id="rId80"/>
+    <hyperlink ref="A50" r:id="rId81"/>
+    <hyperlink ref="C50" r:id="rId82"/>
+    <hyperlink ref="A51" r:id="rId83"/>
+    <hyperlink ref="C51" r:id="rId84"/>
+    <hyperlink ref="A53" r:id="rId85"/>
+    <hyperlink ref="C53" r:id="rId86"/>
+    <hyperlink ref="A54" r:id="rId87"/>
+    <hyperlink ref="C54" r:id="rId88"/>
+    <hyperlink ref="A55" r:id="rId89"/>
+    <hyperlink ref="C55" r:id="rId90"/>
+    <hyperlink ref="B58" r:id="rId91"/>
+    <hyperlink ref="C58" r:id="rId92"/>
+    <hyperlink ref="A59" r:id="rId93"/>
+    <hyperlink ref="C59" r:id="rId94"/>
+    <hyperlink ref="A60" r:id="rId95"/>
+    <hyperlink ref="C60" r:id="rId96"/>
+    <hyperlink ref="A61" r:id="rId97"/>
+    <hyperlink ref="C61" r:id="rId98"/>
+    <hyperlink ref="A62" r:id="rId99"/>
+    <hyperlink ref="C62" r:id="rId100"/>
+    <hyperlink ref="A56" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1859,46 +2105,46 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="239">
   <si>
     <t>Chart No</t>
   </si>
@@ -610,13 +610,163 @@
   </si>
   <si>
     <t>ROA27 - Traffic Collisions and Casualities by County, Year and Statistic (2013-2017) - Modified on 22/11/2019</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/MTM01</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/MTM02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/MTM03</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/MTM04</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ICA77</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ICA79</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ICA55</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPM02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPM03</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPM04</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPM05</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPM06</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPA02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPA03</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPA04</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPA05</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HPA06</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/CIA02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/RAA06</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/CIA01</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/RAA01</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0101</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0102</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0103</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0104</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0105</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0106</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0107</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0108</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/G0112</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ED123</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ED126</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ED133</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA43</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA56</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA57</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA69</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA98</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/EDA99</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/RIA02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/RIH02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/RIQ02</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HSA10</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HSM13</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/HSQ10</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/NRA01</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/NRA03</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ROA15</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ROA26</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ROA27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +857,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -776,7 +934,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,6 +944,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -828,12 +988,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A4:A7 A11:A12 A14:A16 A18 A21:A23 A25:A26 A28:A31 A37 A43:A44 A46:A49 A52:A53 A56:A57 A59 A61:A62 A71 A73:A74 A79 A81 A83 A85 A87 A90 A92:A95 A99:A101 A103:A106 A108 A112:A113 A115:A118 A121:A122 A124"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C28" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1547,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1396,7 +1558,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,7 +1569,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,7 +1580,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1434,7 +1596,7 @@
         <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1445,7 +1607,7 @@
         <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1456,7 +1618,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1472,7 +1634,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1483,7 +1645,7 @@
         <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1494,7 +1656,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1505,7 +1667,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1516,7 +1678,7 @@
         <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1527,7 +1689,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,7 +1700,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1549,7 +1711,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1560,7 +1722,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,7 +1733,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1587,7 +1749,7 @@
         <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,7 +1760,7 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1609,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1620,7 +1782,7 @@
         <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1644,7 +1806,7 @@
         <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1817,7 @@
         <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1828,7 @@
         <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1839,7 @@
         <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1850,7 @@
         <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1861,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1872,7 @@
         <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1883,7 @@
         <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1894,7 @@
         <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1748,7 +1910,7 @@
         <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1759,7 +1921,7 @@
         <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,7 +1932,7 @@
         <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,7 +1943,7 @@
         <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1792,7 +1954,7 @@
         <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1803,7 +1965,7 @@
         <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1814,7 +1976,7 @@
         <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1825,7 +1987,7 @@
         <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1836,7 +1998,7 @@
         <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1852,7 +2014,7 @@
         <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,7 +2025,7 @@
         <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,7 +2036,7 @@
         <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -1890,7 +2052,7 @@
         <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1901,7 +2063,7 @@
         <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1912,7 +2074,7 @@
         <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1933,7 +2095,7 @@
         <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1944,7 +2106,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1955,7 +2117,7 @@
         <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,7 +2128,7 @@
         <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,112 +2139,112 @@
         <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId2" display="JSON"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId4" display="JSON"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId6" display="JSON"/>
     <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId8" display="JSON"/>
     <hyperlink ref="A8" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId10" display="JSON"/>
     <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId12" display="JSON"/>
     <hyperlink ref="A9" r:id="rId13"/>
-    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId14" display="JSON"/>
     <hyperlink ref="A12" r:id="rId15"/>
-    <hyperlink ref="C12" r:id="rId16"/>
+    <hyperlink ref="C12" r:id="rId16" display="JSON"/>
     <hyperlink ref="A13" r:id="rId17"/>
-    <hyperlink ref="C13" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId18" display="JSON"/>
     <hyperlink ref="A14" r:id="rId19"/>
-    <hyperlink ref="C14" r:id="rId20"/>
+    <hyperlink ref="C14" r:id="rId20" display="JSON"/>
     <hyperlink ref="A15" r:id="rId21"/>
-    <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="C15" r:id="rId22" display="JSON"/>
     <hyperlink ref="A16" r:id="rId23"/>
-    <hyperlink ref="C16" r:id="rId24"/>
+    <hyperlink ref="C16" r:id="rId24" display="JSON"/>
     <hyperlink ref="A17" r:id="rId25"/>
-    <hyperlink ref="C17" r:id="rId26"/>
+    <hyperlink ref="C17" r:id="rId26" display="JSON"/>
     <hyperlink ref="A18" r:id="rId27"/>
-    <hyperlink ref="C18" r:id="rId28"/>
+    <hyperlink ref="C18" r:id="rId28" display="JSON"/>
     <hyperlink ref="A19" r:id="rId29"/>
-    <hyperlink ref="C19" r:id="rId30"/>
+    <hyperlink ref="C19" r:id="rId30" display="JSON"/>
     <hyperlink ref="A20" r:id="rId31"/>
-    <hyperlink ref="C20" r:id="rId32"/>
+    <hyperlink ref="C20" r:id="rId32" display="JSON"/>
     <hyperlink ref="A21" r:id="rId33"/>
-    <hyperlink ref="C21" r:id="rId34"/>
+    <hyperlink ref="C21" r:id="rId34" display="JSON"/>
     <hyperlink ref="A23" r:id="rId35"/>
-    <hyperlink ref="C23" r:id="rId36"/>
+    <hyperlink ref="C23" r:id="rId36" display="JSON"/>
     <hyperlink ref="A24" r:id="rId37"/>
-    <hyperlink ref="C24" r:id="rId38"/>
+    <hyperlink ref="C24" r:id="rId38" display="JSON"/>
     <hyperlink ref="A25" r:id="rId39"/>
-    <hyperlink ref="C25" r:id="rId40"/>
+    <hyperlink ref="C25" r:id="rId40" display="JSON"/>
     <hyperlink ref="A26" r:id="rId41"/>
-    <hyperlink ref="C26" r:id="rId42"/>
+    <hyperlink ref="C26" r:id="rId42" display="JSON"/>
     <hyperlink ref="A29" r:id="rId43"/>
-    <hyperlink ref="C29" r:id="rId44"/>
+    <hyperlink ref="C29" r:id="rId44" display="JSON"/>
     <hyperlink ref="A30" r:id="rId45"/>
-    <hyperlink ref="C30" r:id="rId46"/>
+    <hyperlink ref="C30" r:id="rId46" display="JSON"/>
     <hyperlink ref="A31" r:id="rId47"/>
-    <hyperlink ref="C31" r:id="rId48"/>
+    <hyperlink ref="C31" r:id="rId48" display="JSON"/>
     <hyperlink ref="A32" r:id="rId49"/>
-    <hyperlink ref="C32" r:id="rId50"/>
+    <hyperlink ref="C32" r:id="rId50" display="JSON"/>
     <hyperlink ref="A33" r:id="rId51"/>
-    <hyperlink ref="C33" r:id="rId52"/>
+    <hyperlink ref="C33" r:id="rId52" display="JSON"/>
     <hyperlink ref="A34" r:id="rId53"/>
-    <hyperlink ref="C34" r:id="rId54"/>
+    <hyperlink ref="C34" r:id="rId54" display="JSON"/>
     <hyperlink ref="A35" r:id="rId55"/>
-    <hyperlink ref="C35" r:id="rId56"/>
+    <hyperlink ref="C35" r:id="rId56" display="JSON"/>
     <hyperlink ref="A36" r:id="rId57"/>
-    <hyperlink ref="C36" r:id="rId58"/>
+    <hyperlink ref="C36" r:id="rId58" display="JSON"/>
     <hyperlink ref="A37" r:id="rId59"/>
-    <hyperlink ref="C37" r:id="rId60"/>
+    <hyperlink ref="C37" r:id="rId60" display="JSON"/>
     <hyperlink ref="A39" r:id="rId61"/>
-    <hyperlink ref="C39" r:id="rId62"/>
+    <hyperlink ref="C39" r:id="rId62" display="JSON"/>
     <hyperlink ref="A40" r:id="rId63"/>
-    <hyperlink ref="C40" r:id="rId64"/>
+    <hyperlink ref="C40" r:id="rId64" display="JSON"/>
     <hyperlink ref="A41" r:id="rId65"/>
-    <hyperlink ref="C41" r:id="rId66"/>
+    <hyperlink ref="C41" r:id="rId66" display="JSON"/>
     <hyperlink ref="A42" r:id="rId67"/>
-    <hyperlink ref="C42" r:id="rId68"/>
+    <hyperlink ref="C42" r:id="rId68" display="JSON"/>
     <hyperlink ref="A43" r:id="rId69"/>
-    <hyperlink ref="C43" r:id="rId70"/>
+    <hyperlink ref="C43" r:id="rId70" display="JSON"/>
     <hyperlink ref="A44" r:id="rId71"/>
-    <hyperlink ref="C44" r:id="rId72"/>
+    <hyperlink ref="C44" r:id="rId72" display="JSON"/>
     <hyperlink ref="A45" r:id="rId73"/>
-    <hyperlink ref="C45" r:id="rId74"/>
+    <hyperlink ref="C45" r:id="rId74" display="JSON"/>
     <hyperlink ref="A46" r:id="rId75"/>
-    <hyperlink ref="C46" r:id="rId76"/>
+    <hyperlink ref="C46" r:id="rId76" display="JSON"/>
     <hyperlink ref="A47" r:id="rId77"/>
-    <hyperlink ref="C47" r:id="rId78"/>
+    <hyperlink ref="C47" r:id="rId78" display="JSON"/>
     <hyperlink ref="A49" r:id="rId79"/>
-    <hyperlink ref="C49" r:id="rId80"/>
+    <hyperlink ref="C49" r:id="rId80" display="JSON"/>
     <hyperlink ref="A50" r:id="rId81"/>
-    <hyperlink ref="C50" r:id="rId82"/>
+    <hyperlink ref="C50" r:id="rId82" display="JSON"/>
     <hyperlink ref="A51" r:id="rId83"/>
-    <hyperlink ref="C51" r:id="rId84"/>
+    <hyperlink ref="C51" r:id="rId84" display="JSON"/>
     <hyperlink ref="A53" r:id="rId85"/>
-    <hyperlink ref="C53" r:id="rId86"/>
+    <hyperlink ref="C53" r:id="rId86" display="JSON"/>
     <hyperlink ref="A54" r:id="rId87"/>
-    <hyperlink ref="C54" r:id="rId88"/>
+    <hyperlink ref="C54" r:id="rId88" display="JSON"/>
     <hyperlink ref="A55" r:id="rId89"/>
-    <hyperlink ref="C55" r:id="rId90"/>
+    <hyperlink ref="C55" r:id="rId90" display="JSON"/>
     <hyperlink ref="B58" r:id="rId91"/>
-    <hyperlink ref="C58" r:id="rId92"/>
+    <hyperlink ref="C58" r:id="rId92" display="JSON"/>
     <hyperlink ref="A59" r:id="rId93"/>
-    <hyperlink ref="C59" r:id="rId94"/>
+    <hyperlink ref="C59" r:id="rId94" display="JSON"/>
     <hyperlink ref="A60" r:id="rId95"/>
-    <hyperlink ref="C60" r:id="rId96"/>
+    <hyperlink ref="C60" r:id="rId96" display="JSON"/>
     <hyperlink ref="A61" r:id="rId97"/>
-    <hyperlink ref="C61" r:id="rId98"/>
+    <hyperlink ref="C61" r:id="rId98" display="JSON"/>
     <hyperlink ref="A62" r:id="rId99"/>
-    <hyperlink ref="C62" r:id="rId100"/>
+    <hyperlink ref="C62" r:id="rId100" display="JSON"/>
     <hyperlink ref="A56" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashir/mydcd/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="291">
   <si>
     <t>Chart No</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Annual Water Consumption per Capita</t>
-  </si>
-  <si>
-    <t>Eastern River Basin District Water Quality http://www.epa.ie/</t>
   </si>
   <si>
     <t>1998-2010</t>
@@ -760,13 +757,172 @@
   </si>
   <si>
     <t>https://www.cso.ie/StatbankServices/StatbankServices.svc/jsonservice/responseinstance/ROA27</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Numbers in Employment</t>
+  </si>
+  <si>
+    <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=QLF08&amp;PLanguage=0</t>
+  </si>
+  <si>
+    <t>themes#Economy</t>
+  </si>
+  <si>
+    <t>/data/Economy/employment.csv</t>
+  </si>
+  <si>
+    <t>Dublin and the rest of Irekand</t>
+  </si>
+  <si>
+    <t>Numbers Unemployed</t>
+  </si>
+  <si>
+    <t>/data/Economy/QNQ22_2</t>
+  </si>
+  <si>
+    <t>Gross Value Added</t>
+  </si>
+  <si>
+    <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=raa01</t>
+  </si>
+  <si>
+    <t>/data/Economy/RAA01</t>
+  </si>
+  <si>
+    <t>Dublin , Dublin plus Mid East and State</t>
+  </si>
+  <si>
+    <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=SIA20&amp;PLanguage=0</t>
+  </si>
+  <si>
+    <t>Poverty Rating</t>
+  </si>
+  <si>
+    <t>/data/Economy/SIA20</t>
+  </si>
+  <si>
+    <t>Dublin  from 2004-2016</t>
+  </si>
+  <si>
+    <t>Numbers by Employment Sector in Dublin</t>
+  </si>
+  <si>
+    <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=QLF07&amp;PLanguage=0</t>
+  </si>
+  <si>
+    <t>/data/Economy/IncomeAndLivingData</t>
+  </si>
+  <si>
+    <t>/data/Economy/BRA08</t>
+  </si>
+  <si>
+    <t>Dublin from 2008-2016</t>
+  </si>
+  <si>
+    <t>Overseas Visitors</t>
+  </si>
+  <si>
+    <t>http://www.failteireland.ie/Research-Insights/Tourism-Facts-and-Figures.aspx</t>
+  </si>
+  <si>
+    <t>/data/Economy/overseasvisitors</t>
+  </si>
+  <si>
+    <t>Dublin from 2013-2017</t>
+  </si>
+  <si>
+    <t>stacked_area_chart.js</t>
+  </si>
+  <si>
+    <t>multiline_chart.js</t>
+  </si>
+  <si>
+    <t>grouped_bar_chart</t>
+  </si>
+  <si>
+    <t>Median Real Household Disposable Income</t>
+  </si>
+  <si>
+    <t>Number of Employees by Size of Company</t>
+  </si>
+  <si>
+    <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=BRA08&amp;PLanguage=0</t>
+  </si>
+  <si>
+    <t>/data/Economy/</t>
+  </si>
+  <si>
+    <t>grouped_bar_chart.js</t>
+  </si>
+  <si>
+    <t>stacked_bar_chart.js</t>
+  </si>
+  <si>
+    <t>Eastern River Basin District Water Quality c</t>
+  </si>
+  <si>
+    <t>http://www.epa.ie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/03/2020 Data Checked from the source and still no update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/03/2020 Data is upated till </t>
+  </si>
+  <si>
+    <t>Q32019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data still the same till Q3 2017</t>
+  </si>
+  <si>
+    <t>Data is updated till 2019 Q4</t>
+  </si>
+  <si>
+    <t>10/03/2020 Data is updated till 2018</t>
+  </si>
+  <si>
+    <t>data still up to 2014</t>
+  </si>
+  <si>
+    <t>data updated to 2018</t>
+  </si>
+  <si>
+    <t>data still not updated till 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data still not updated till 2016</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>No. of Patients Waiting on Trolleys (30 Weekday Rolling Average)</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/organisation/department-of-health/?referrer=/*</t>
+  </si>
+  <si>
+    <t>theme/Health</t>
+  </si>
+  <si>
+    <t>/data/health/trolleys_transposed.csv</t>
+  </si>
+  <si>
+    <t>Dublin from 2013-2016</t>
+  </si>
+  <si>
+    <t>health.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,8 +1021,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFB000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFB000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,6 +1118,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -947,7 +1162,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -987,6 +1202,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
@@ -1031,6 +1256,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1341,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1359,142 +1589,142 @@
   <sheetData>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="E21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1515,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C28" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1528,618 +1758,618 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2267,46 +2497,46 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2330,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2348,41 +2578,41 @@
     <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2408,10 +2638,10 @@
         <v>43633</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2437,10 +2667,18 @@
         <v>43633</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2466,10 +2704,18 @@
         <v>43633</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2492,15 +2738,26 @@
         <v>43633</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2509,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -2518,24 +2775,32 @@
         <v>43633</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -2544,24 +2809,32 @@
         <v>43633</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -2570,366 +2843,750 @@
         <v>43633</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P10" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P12" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="13">
         <v>43633</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="13">
         <v>43633</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>275</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="S16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="13">
         <v>43633</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="13">
         <v>43633</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
       <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
       </c>
       <c r="H21" s="13">
         <v>43633</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="T21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
       </c>
       <c r="H22" s="13">
         <v>43633</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="T22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="13">
         <v>43633</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P25" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="O31" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="O32" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+    </row>
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="24"/>
+      <c r="O36" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashir/mydcd/bcd-dd-v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="291">
   <si>
     <t>Chart No</t>
   </si>
@@ -870,27 +870,12 @@
     <t xml:space="preserve">10/03/2020 Data Checked from the source and still no update </t>
   </si>
   <si>
-    <t xml:space="preserve">10/03/2020 Data is upated till </t>
-  </si>
-  <si>
-    <t>Q32019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data still the same till Q3 2017</t>
-  </si>
-  <si>
     <t>Data is updated till 2019 Q4</t>
   </si>
   <si>
     <t>10/03/2020 Data is updated till 2018</t>
   </si>
   <si>
-    <t>data still up to 2014</t>
-  </si>
-  <si>
-    <t>data updated to 2018</t>
-  </si>
-  <si>
     <t>data still not updated till 2016</t>
   </si>
   <si>
@@ -916,13 +901,28 @@
   </si>
   <si>
     <t>health.js</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>10/03/2020 Data is upated till  Q32019</t>
+  </si>
+  <si>
+    <t>10/03/2020 Data is upated till 2019</t>
+  </si>
+  <si>
+    <t>data still the same till Q3 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,8 +1074,15 @@
       <color theme="4"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1131,11 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1149,7 +1161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1161,8 +1173,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1189,7 +1202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1212,8 +1224,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -1223,6 +1245,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
@@ -1588,31 +1611,31 @@
   </cols>
   <sheetData>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1620,25 +1643,25 @@
       <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1646,52 +1669,52 @@
       <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>115</v>
       </c>
       <c r="I20" t="s">
@@ -1702,39 +1725,39 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1757,15 +1780,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1814,7 +1837,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1852,7 +1875,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1967,7 +1990,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2016,15 +2039,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2128,7 +2151,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2232,7 +2255,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2270,7 +2293,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2313,7 +2336,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2560,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2575,15 +2598,16 @@
     <col min="6" max="6" width="35.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2608,11 +2632,17 @@
       <c r="H2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J2" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2637,11 +2667,11 @@
       <c r="H3" s="13">
         <v>43633</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2666,19 +2696,19 @@
       <c r="H4" s="13">
         <v>43633</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2703,19 +2733,19 @@
       <c r="H5" s="13">
         <v>43633</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2737,19 +2767,19 @@
       <c r="H6" s="13">
         <v>43633</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2774,19 +2804,19 @@
       <c r="H7" s="13">
         <v>43633</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2808,19 +2838,19 @@
       <c r="H8" s="13">
         <v>43633</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2842,34 +2872,34 @@
       <c r="H9" s="13">
         <v>43633</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P10" s="26" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J10" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2891,16 +2921,14 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J12" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>2</v>
       </c>
@@ -2922,16 +2950,14 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J13" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>3</v>
       </c>
@@ -2956,19 +2982,17 @@
       <c r="H14" s="13">
         <v>43633</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J14" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>4</v>
       </c>
@@ -2993,17 +3017,15 @@
       <c r="H15" s="13">
         <v>43633</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P15" t="s">
-        <v>275</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>288</v>
+      </c>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>5</v>
       </c>
@@ -3025,17 +3047,14 @@
       <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="S16">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J16" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>6</v>
       </c>
@@ -3060,17 +3079,14 @@
       <c r="H17" s="13">
         <v>43633</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J17" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>7</v>
       </c>
@@ -3095,17 +3111,14 @@
       <c r="H18" s="13">
         <v>43633</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3127,11 +3140,11 @@
       <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J20" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3153,17 +3166,14 @@
       <c r="H21" s="13">
         <v>43633</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="T21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J21" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3185,22 +3195,19 @@
       <c r="H22" s="13">
         <v>43633</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="T22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="J22" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -3222,14 +3229,14 @@
       <c r="H24" s="13">
         <v>43633</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J24" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -3248,11 +3255,11 @@
       <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J25" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>3</v>
       </c>
@@ -3271,11 +3278,11 @@
       <c r="F26" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J26" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>4</v>
       </c>
@@ -3294,96 +3301,92 @@
       <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="J27" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>1</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="O31" s="27" t="s">
+      <c r="H31" s="21"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>2</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="O32" s="28" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3405,124 +3408,124 @@
       <c r="G33" t="s">
         <v>264</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="J33" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>256</v>
       </c>
       <c r="F34" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="J34" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="O35" s="28" t="s">
+      <c r="J35" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-    </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="24"/>
-      <c r="O36" s="28" t="s">
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="23"/>
+      <c r="J36" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="O37" s="28" t="s">
+      <c r="J37" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>268</v>
       </c>
       <c r="D38" t="s">
@@ -3538,55 +3541,55 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F39" t="s">
         <v>262</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
         <v>285</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashir/nrepo10/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27280" windowHeight="14480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="293">
   <si>
     <t>Chart No</t>
   </si>
@@ -916,13 +916,19 @@
   </si>
   <si>
     <t>data still the same till Q3 2017</t>
+  </si>
+  <si>
+    <t>Chart was updated in 20/03/2020</t>
+  </si>
+  <si>
+    <t>Chart was updated in 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1087,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1175,7 +1195,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1234,6 +1254,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
@@ -1281,6 +1303,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF59F700"/>
       <color rgb="FFFFB000"/>
     </mruColors>
   </colors>
@@ -2585,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2600,6 +2623,7 @@
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
@@ -3085,6 +3109,9 @@
       <c r="J17" s="28" t="s">
         <v>290</v>
       </c>
+      <c r="K17" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -3117,6 +3144,9 @@
       <c r="J18" s="28" t="s">
         <v>275</v>
       </c>
+      <c r="K18" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -3142,6 +3172,12 @@
       </c>
       <c r="J20" s="28" t="s">
         <v>276</v>
+      </c>
+      <c r="K20" t="s">
+        <v>292</v>
+      </c>
+      <c r="M20" s="13">
+        <v>43910</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -3347,9 +3383,11 @@
       <c r="J31" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
+      <c r="K31" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
@@ -3380,9 +3418,11 @@
       <c r="J32" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
+      <c r="K32" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
     </row>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashir/nrepo10/bcd-dd-v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27280" windowHeight="14480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -38,8 +38,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+LOS- Switch to use statbank </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>Chart No</t>
   </si>
@@ -834,15 +866,6 @@
     <t>Dublin from 2013-2017</t>
   </si>
   <si>
-    <t>stacked_area_chart.js</t>
-  </si>
-  <si>
-    <t>multiline_chart.js</t>
-  </si>
-  <si>
-    <t>grouped_bar_chart</t>
-  </si>
-  <si>
     <t>Median Real Household Disposable Income</t>
   </si>
   <si>
@@ -853,12 +876,6 @@
   </si>
   <si>
     <t>/data/Economy/</t>
-  </si>
-  <si>
-    <t>grouped_bar_chart.js</t>
-  </si>
-  <si>
-    <t>stacked_bar_chart.js</t>
   </si>
   <si>
     <t>Eastern River Basin District Water Quality c</t>
@@ -928,7 +945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1117,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1618,7 +1646,7 @@
   <dimension ref="A17:I22"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1791,9 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C28" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2605,11 +2631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2660,10 +2686,10 @@
         <v>86</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="165" x14ac:dyDescent="0.2">
@@ -2724,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -2761,7 +2787,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -2795,7 +2821,7 @@
         <v>87</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -2808,10 +2834,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2832,7 +2858,7 @@
         <v>87</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -2866,7 +2892,7 @@
         <v>87</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -2900,7 +2926,7 @@
         <v>87</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -2910,7 +2936,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J10" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -2946,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -2975,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -3010,7 +3036,7 @@
         <v>87</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -3045,7 +3071,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M15" s="28"/>
     </row>
@@ -3075,7 +3101,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -3107,10 +3133,10 @@
         <v>87</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -3142,10 +3168,10 @@
         <v>87</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K18" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -3171,10 +3197,10 @@
         <v>32</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M20" s="13">
         <v>43910</v>
@@ -3206,7 +3232,7 @@
         <v>87</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -3235,7 +3261,7 @@
         <v>87</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20" x14ac:dyDescent="0.2">
@@ -3269,7 +3295,7 @@
         <v>87</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -3292,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -3315,7 +3341,7 @@
         <v>69</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -3338,7 +3364,7 @@
         <v>80</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -3375,16 +3401,14 @@
       <c r="F31" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="32"/>
       <c r="J31" s="26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
@@ -3410,16 +3434,14 @@
       <c r="F32" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="32"/>
       <c r="J32" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -3445,11 +3467,8 @@
       <c r="F33" t="s">
         <v>249</v>
       </c>
-      <c r="G33" t="s">
-        <v>264</v>
-      </c>
       <c r="J33" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
@@ -3462,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>250</v>
@@ -3476,11 +3495,9 @@
       <c r="F34" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>265</v>
-      </c>
+      <c r="G34" s="21"/>
       <c r="J34" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -3507,11 +3524,9 @@
       <c r="F35" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>271</v>
-      </c>
+      <c r="G35" s="21"/>
       <c r="J35" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
@@ -3522,7 +3537,7 @@
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="23"/>
       <c r="J36" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
@@ -3550,7 +3565,7 @@
         <v>258</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
@@ -3563,22 +3578,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
         <v>258</v>
-      </c>
-      <c r="G38" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -3600,13 +3612,11 @@
       <c r="F39" t="s">
         <v>262</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>270</v>
-      </c>
+      <c r="G39" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -3614,22 +3624,22 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" t="s">
         <v>280</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42" t="s">
-        <v>284</v>
-      </c>
-      <c r="G42" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3656,5 +3666,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C7B6CD-451F-4FA9-9838-808A092CF77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -18,12 +17,15 @@
     <sheet name="discontinued_politcal football" sheetId="4" r:id="rId3"/>
     <sheet name="Themes Page" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,20 +36,17 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
   <si>
     <t>Card</t>
   </si>
@@ -545,9 +544,6 @@
     <t>Link to Data Source</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -626,9 +622,6 @@
     <t>http://www.epa.ie/pubs/reports/waste/stats/#.VrNcerKLTIW</t>
   </si>
   <si>
-    <t>themes#environment</t>
-  </si>
-  <si>
     <t>/data/Environment/wastes.csv</t>
   </si>
   <si>
@@ -728,9 +721,6 @@
     <t>https://www.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=RIQ02&amp;ProductID=DB_RI&amp;PLanguage=0</t>
   </si>
   <si>
-    <t>/themes#housing</t>
-  </si>
-  <si>
     <t>/data/Housing/rent_processed.JSON</t>
   </si>
   <si>
@@ -863,9 +853,6 @@
     <t>Population Statistics</t>
   </si>
   <si>
-    <t>themes#demographics</t>
-  </si>
-  <si>
     <t>Dublin 1911-2016</t>
   </si>
   <si>
@@ -914,9 +901,6 @@
     <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=QLF08&amp;PLanguage=0</t>
   </si>
   <si>
-    <t>themes#Economy</t>
-  </si>
-  <si>
     <t>/data/Economy/employment.csv</t>
   </si>
   <si>
@@ -999,9 +983,6 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/organisation/department-of-health/?referrer=/*</t>
-  </si>
-  <si>
-    <t>theme/Health</t>
   </si>
   <si>
     <t>/data/health/trolleys_transposed.csv</t>
@@ -1022,8 +1003,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,13 +1015,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1241,17 +1215,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1350,140 +1319,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="11">
+    <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1510,7 +1474,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1828,173 +1792,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:I22"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="45">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,32 +1966,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2038,7 +2002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2060,7 +2024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2071,12 +2035,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23.1">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2087,7 +2051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2109,12 +2073,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23.1">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2125,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2136,7 +2100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2147,7 +2111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -2158,7 +2122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2169,7 +2133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -2191,7 +2155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -2202,7 +2166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2213,7 +2177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2224,12 +2188,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="23.1">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -2240,7 +2204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2251,7 +2215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -2262,7 +2226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2273,20 +2237,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="23.1">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2297,7 +2261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -2308,7 +2272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2319,7 +2283,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2330,7 +2294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2341,7 +2305,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -2352,7 +2316,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -2363,7 +2327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -2374,7 +2338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -2385,12 +2349,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="23.1">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
@@ -2401,7 +2365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -2412,7 +2376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -2423,7 +2387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2434,7 +2398,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -2445,7 +2409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -2456,7 +2420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
@@ -2467,7 +2431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
@@ -2478,7 +2442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2489,12 +2453,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.1">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2505,7 +2469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -2516,7 +2480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2527,12 +2491,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="23.1">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -2543,7 +2507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -2554,7 +2518,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -2565,17 +2529,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="23.1">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -2586,7 +2550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -2597,7 +2561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -2608,7 +2572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
@@ -2619,7 +2583,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
@@ -2633,107 +2597,107 @@
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="JSON" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" display="JSON" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" display="JSON" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C6" r:id="rId8" display="JSON" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C8" r:id="rId10" display="JSON" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C10" r:id="rId12" display="JSON" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C9" r:id="rId14" display="JSON" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C12" r:id="rId16" display="JSON" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="A13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C13" r:id="rId18" display="JSON" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="A14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C14" r:id="rId20" display="JSON" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="A15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C15" r:id="rId22" display="JSON" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="A16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C16" r:id="rId24" display="JSON" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="A17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C17" r:id="rId26" display="JSON" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="A18" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C18" r:id="rId28" display="JSON" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="A19" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C19" r:id="rId30" display="JSON" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="A20" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C20" r:id="rId32" display="JSON" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="A21" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C21" r:id="rId34" display="JSON" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="A23" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C23" r:id="rId36" display="JSON" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="A24" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C24" r:id="rId38" display="JSON" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="A25" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C25" r:id="rId40" display="JSON" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="A26" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="C26" r:id="rId42" display="JSON" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="A29" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="C29" r:id="rId44" display="JSON" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="A30" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="C30" r:id="rId46" display="JSON" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="A31" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="C31" r:id="rId48" display="JSON" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="A32" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C32" r:id="rId50" display="JSON" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="A33" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="C33" r:id="rId52" display="JSON" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="A34" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="C34" r:id="rId54" display="JSON" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="A35" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="C35" r:id="rId56" display="JSON" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="A36" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="C36" r:id="rId58" display="JSON" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="A37" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="C37" r:id="rId60" display="JSON" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="A39" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="C39" r:id="rId62" display="JSON" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="A40" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="C40" r:id="rId64" display="JSON" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="A41" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="C41" r:id="rId66" display="JSON" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="A42" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="C42" r:id="rId68" display="JSON" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="A43" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="C43" r:id="rId70" display="JSON" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="A44" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="C44" r:id="rId72" display="JSON" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="A45" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="C45" r:id="rId74" display="JSON" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="A46" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="C46" r:id="rId76" display="JSON" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="A47" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="C47" r:id="rId78" display="JSON" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="A49" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="C49" r:id="rId80" display="JSON" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="A50" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="C50" r:id="rId82" display="JSON" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="A51" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="C51" r:id="rId84" display="JSON" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="A53" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="C53" r:id="rId86" display="JSON" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="A54" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="C54" r:id="rId88" display="JSON" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="A55" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="C55" r:id="rId90" display="JSON" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B58" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="C58" r:id="rId92" display="JSON" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="A59" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="C59" r:id="rId94" display="JSON" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="A60" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="C60" r:id="rId96" display="JSON" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="A61" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="C61" r:id="rId98" display="JSON" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="A62" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="C62" r:id="rId100" display="JSON" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="A56" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2" display="JSON"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4" display="JSON"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6" display="JSON"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8" display="JSON"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10" display="JSON"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12" display="JSON"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14" display="JSON"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16" display="JSON"/>
+    <hyperlink ref="A13" r:id="rId17"/>
+    <hyperlink ref="C13" r:id="rId18" display="JSON"/>
+    <hyperlink ref="A14" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20" display="JSON"/>
+    <hyperlink ref="A15" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22" display="JSON"/>
+    <hyperlink ref="A16" r:id="rId23"/>
+    <hyperlink ref="C16" r:id="rId24" display="JSON"/>
+    <hyperlink ref="A17" r:id="rId25"/>
+    <hyperlink ref="C17" r:id="rId26" display="JSON"/>
+    <hyperlink ref="A18" r:id="rId27"/>
+    <hyperlink ref="C18" r:id="rId28" display="JSON"/>
+    <hyperlink ref="A19" r:id="rId29"/>
+    <hyperlink ref="C19" r:id="rId30" display="JSON"/>
+    <hyperlink ref="A20" r:id="rId31"/>
+    <hyperlink ref="C20" r:id="rId32" display="JSON"/>
+    <hyperlink ref="A21" r:id="rId33"/>
+    <hyperlink ref="C21" r:id="rId34" display="JSON"/>
+    <hyperlink ref="A23" r:id="rId35"/>
+    <hyperlink ref="C23" r:id="rId36" display="JSON"/>
+    <hyperlink ref="A24" r:id="rId37"/>
+    <hyperlink ref="C24" r:id="rId38" display="JSON"/>
+    <hyperlink ref="A25" r:id="rId39"/>
+    <hyperlink ref="C25" r:id="rId40" display="JSON"/>
+    <hyperlink ref="A26" r:id="rId41"/>
+    <hyperlink ref="C26" r:id="rId42" display="JSON"/>
+    <hyperlink ref="A29" r:id="rId43"/>
+    <hyperlink ref="C29" r:id="rId44" display="JSON"/>
+    <hyperlink ref="A30" r:id="rId45"/>
+    <hyperlink ref="C30" r:id="rId46" display="JSON"/>
+    <hyperlink ref="A31" r:id="rId47"/>
+    <hyperlink ref="C31" r:id="rId48" display="JSON"/>
+    <hyperlink ref="A32" r:id="rId49"/>
+    <hyperlink ref="C32" r:id="rId50" display="JSON"/>
+    <hyperlink ref="A33" r:id="rId51"/>
+    <hyperlink ref="C33" r:id="rId52" display="JSON"/>
+    <hyperlink ref="A34" r:id="rId53"/>
+    <hyperlink ref="C34" r:id="rId54" display="JSON"/>
+    <hyperlink ref="A35" r:id="rId55"/>
+    <hyperlink ref="C35" r:id="rId56" display="JSON"/>
+    <hyperlink ref="A36" r:id="rId57"/>
+    <hyperlink ref="C36" r:id="rId58" display="JSON"/>
+    <hyperlink ref="A37" r:id="rId59"/>
+    <hyperlink ref="C37" r:id="rId60" display="JSON"/>
+    <hyperlink ref="A39" r:id="rId61"/>
+    <hyperlink ref="C39" r:id="rId62" display="JSON"/>
+    <hyperlink ref="A40" r:id="rId63"/>
+    <hyperlink ref="C40" r:id="rId64" display="JSON"/>
+    <hyperlink ref="A41" r:id="rId65"/>
+    <hyperlink ref="C41" r:id="rId66" display="JSON"/>
+    <hyperlink ref="A42" r:id="rId67"/>
+    <hyperlink ref="C42" r:id="rId68" display="JSON"/>
+    <hyperlink ref="A43" r:id="rId69"/>
+    <hyperlink ref="C43" r:id="rId70" display="JSON"/>
+    <hyperlink ref="A44" r:id="rId71"/>
+    <hyperlink ref="C44" r:id="rId72" display="JSON"/>
+    <hyperlink ref="A45" r:id="rId73"/>
+    <hyperlink ref="C45" r:id="rId74" display="JSON"/>
+    <hyperlink ref="A46" r:id="rId75"/>
+    <hyperlink ref="C46" r:id="rId76" display="JSON"/>
+    <hyperlink ref="A47" r:id="rId77"/>
+    <hyperlink ref="C47" r:id="rId78" display="JSON"/>
+    <hyperlink ref="A49" r:id="rId79"/>
+    <hyperlink ref="C49" r:id="rId80" display="JSON"/>
+    <hyperlink ref="A50" r:id="rId81"/>
+    <hyperlink ref="C50" r:id="rId82" display="JSON"/>
+    <hyperlink ref="A51" r:id="rId83"/>
+    <hyperlink ref="C51" r:id="rId84" display="JSON"/>
+    <hyperlink ref="A53" r:id="rId85"/>
+    <hyperlink ref="C53" r:id="rId86" display="JSON"/>
+    <hyperlink ref="A54" r:id="rId87"/>
+    <hyperlink ref="C54" r:id="rId88" display="JSON"/>
+    <hyperlink ref="A55" r:id="rId89"/>
+    <hyperlink ref="C55" r:id="rId90" display="JSON"/>
+    <hyperlink ref="B58" r:id="rId91"/>
+    <hyperlink ref="C58" r:id="rId92" display="JSON"/>
+    <hyperlink ref="A59" r:id="rId93"/>
+    <hyperlink ref="C59" r:id="rId94" display="JSON"/>
+    <hyperlink ref="A60" r:id="rId95"/>
+    <hyperlink ref="C60" r:id="rId96" display="JSON"/>
+    <hyperlink ref="A61" r:id="rId97"/>
+    <hyperlink ref="C61" r:id="rId98" display="JSON"/>
+    <hyperlink ref="A62" r:id="rId99"/>
+    <hyperlink ref="C62" r:id="rId100" display="JSON"/>
+    <hyperlink ref="A56" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2741,19 +2705,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
@@ -2764,7 +2728,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -2775,7 +2739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -2786,7 +2750,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -2799,1311 +2763,1208 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:K52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="10" max="10" width="37.5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="46" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="60">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="40">
+      <c r="C10" s="40"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:14" ht="165" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33" t="s">
+      <c r="B11" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="195">
-      <c r="A11" s="10">
+      <c r="C11" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="53">
+        <v>4</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="56">
+        <v>43633</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>6</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>7</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="41">
+        <v>43633</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="B20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="39">
+        <v>3</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="41">
         <v>43633</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="60">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="H22" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <v>4</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="41">
         <v>43633</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="60">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="45">
+      <c r="H23" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>6</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="41">
         <v>43633</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="54">
-        <v>4</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="H25" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="I25" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <v>7</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="41">
         <v>43633</v>
       </c>
-      <c r="I14" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="51">
-        <v>5</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="51">
-        <v>6</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="60">
-        <v>7</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.25">
-      <c r="A19" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="40">
-        <v>1</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H22" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="40">
-        <v>4</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" ht="45">
-      <c r="A24" s="40">
-        <v>5</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="40">
-        <v>6</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="H26" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="40">
-        <v>7</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="F28" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="L28" s="11">
         <v>43910</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="43" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="39">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="C32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="45">
+      <c r="F32" s="32"/>
+      <c r="G32" s="41">
         <v>43633</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:15" ht="20.25">
-      <c r="A31" s="5" t="s">
+      <c r="H32" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="51" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="40">
+      <c r="J32" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="39">
+        <v>2</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="39">
+        <v>3</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <v>4</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="52"/>
+    </row>
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="52">
         <v>1</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K32" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="40">
+      <c r="B39" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="52">
         <v>2</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="K33" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="40">
+      <c r="B40" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
         <v>3</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="40">
+      <c r="B41" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
         <v>4</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="K36" s="53"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.25">
-      <c r="A38" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="53">
+      <c r="B42" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
+        <v>5</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
+        <v>6</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>7</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
+        <v>8</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="42">
         <v>1</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K39" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="53">
-        <v>2</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="33">
-        <v>3</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="33">
-        <v>4</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="33">
-        <v>5</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-    </row>
-    <row r="44" spans="1:15" ht="17.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="33">
-        <v>6</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="33">
-        <v>7</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="33">
-        <v>8</v>
-      </c>
-      <c r="B47" s="33" t="s">
+      <c r="B50" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C50" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="53" t="s">
+      <c r="D50" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="E50" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="23.25">
-      <c r="A49" s="24" t="s">
+      <c r="F50" s="42" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="43">
-        <v>1</v>
-      </c>
-      <c r="B50" s="43" t="s">
+      <c r="G50" s="42"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="C50" s="50" t="s">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="D50" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" location=".VrNcerKLTIW" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId2" location=".VrNcerKLTIW" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C32" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C33" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C34" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW" xr:uid="{21DECC9C-47EC-44BE-9F30-A266B2D261DB}"/>
+    <hyperlink ref="C12" r:id="rId1" location=".VrNcerKLTIW"/>
+    <hyperlink ref="C13" r:id="rId2" location=".VrNcerKLTIW"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C21" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="C29" r:id="rId12"/>
+    <hyperlink ref="C30" r:id="rId13"/>
+    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C33" r:id="rId15"/>
+    <hyperlink ref="C34" r:id="rId16"/>
+    <hyperlink ref="C35" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
@@ -4329,15 +4190,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="06e0d976-3d31-4bf3-b229-12f0909620f9">
@@ -4351,14 +4203,48 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7ADA5B-1C79-422C-B3D8-5CED891E2FC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7ADA5B-1C79-422C-B3D8-5CED891E2FC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edfacf83-951b-4dc6-822b-2c02bca35ad8"/>
+    <ds:schemaRef ds:uri="06e0d976-3d31-4bf3-b229-12f0909620f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565A1A7D-0DB7-49F9-A787-5BF8A5576797}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="06e0d976-3d31-4bf3-b229-12f0909620f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565A1A7D-0DB7-49F9-A787-5BF8A5576797}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstehle\BCD\Dashboard_sandbox\bcd-dd-v2.1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C7B6CD-451F-4FA9-9838-808A092CF77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
     <sheet name="Statbank" sheetId="3" r:id="rId2"/>
     <sheet name="discontinued_politcal football" sheetId="4" r:id="rId3"/>
     <sheet name="Themes Page" sheetId="1" r:id="rId4"/>
+    <sheet name="Stories" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="E40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="409">
   <si>
     <t>Card</t>
   </si>
@@ -1017,13 +1017,301 @@
   </si>
   <si>
     <t>Some health variable???</t>
+  </si>
+  <si>
+    <t>http://insideairbnb.com/get-the-data.html</t>
+  </si>
+  <si>
+    <t>https://data-housinggovie.opendata.arcgis.com/datasets</t>
+  </si>
+  <si>
+    <t>data current as of Q3 2019 - archive back to Q4 2017 to be downloaded</t>
+  </si>
+  <si>
+    <t>/stories#phase_3</t>
+  </si>
+  <si>
+    <t>Rent prices jumped, particularly in Dublin</t>
+  </si>
+  <si>
+    <t>All counties + whole state minus Dublin, Q4 2007-Q1 2019</t>
+  </si>
+  <si>
+    <t>story-housing3-fig1.js</t>
+  </si>
+  <si>
+    <t>data is different from above</t>
+  </si>
+  <si>
+    <t>what is source?</t>
+  </si>
+  <si>
+    <t>New and second-hand home prices rose dramatically</t>
+  </si>
+  <si>
+    <t>/stories#phase_1</t>
+  </si>
+  <si>
+    <t>story-housing1-fig4.js</t>
+  </si>
+  <si>
+    <t>/themes#housing, /storiesphase_2</t>
+  </si>
+  <si>
+    <t>Housing unit completions outnumbered new households</t>
+  </si>
+  <si>
+    <t>story-housing1-fig3.js</t>
+  </si>
+  <si>
+    <t>story-housing3-fig4.js</t>
+  </si>
+  <si>
+    <t>how to auto update with new data?</t>
+  </si>
+  <si>
+    <t>add to themes page</t>
+  </si>
+  <si>
+    <t>monthly updates in individual geojson - this is the most recent from Mar 2020</t>
+  </si>
+  <si>
+    <t>story-housing3-fig3.js</t>
+  </si>
+  <si>
+    <t>monthly updates, processed in R for plotly</t>
+  </si>
+  <si>
+    <t>story-housing3-fig5.js</t>
+  </si>
+  <si>
+    <t>Dublin Housing Task Force quarterly updates of Tier 1 and Tier 2A housing development proposals from Q4 2019</t>
+  </si>
+  <si>
+    <t>phase 1</t>
+  </si>
+  <si>
+    <t>phase 2</t>
+  </si>
+  <si>
+    <t>phase 3</t>
+  </si>
+  <si>
+    <t>Population and households surged from 1991 - 2006, increasing housing demand</t>
+  </si>
+  <si>
+    <t>Dublin area housing type diversity also increased</t>
+  </si>
+  <si>
+    <t>Cost versus wage discrepancy increased mortgage debt</t>
+  </si>
+  <si>
+    <t>Demand for social housing and long-term rentals increased</t>
+  </si>
+  <si>
+    <t>High prices led to more renting, less social housing</t>
+  </si>
+  <si>
+    <t>Urban prices drove sprawl and long-distance commuting</t>
+  </si>
+  <si>
+    <t>After rapid growth, property prices collapsed</t>
+  </si>
+  <si>
+    <t>More homes were being built than demanded, leading to high vacancy rates</t>
+  </si>
+  <si>
+    <t>Estates remained unfinished throughout the country</t>
+  </si>
+  <si>
+    <t>Non-residential properties were also left vacant</t>
+  </si>
+  <si>
+    <t>High mortgage rates meant many could not afford payments</t>
+  </si>
+  <si>
+    <t>Buy-to-rent mortgages experienced higher rates of arrears</t>
+  </si>
+  <si>
+    <t>High housing costs drove many more to seek social housing</t>
+  </si>
+  <si>
+    <t>Housing assistance for Traveller families also declined</t>
+  </si>
+  <si>
+    <t>High rents and comparatively low wages drove homelessness rates higher</t>
+  </si>
+  <si>
+    <t>The short term rental market displaces housing stock for residents</t>
+  </si>
+  <si>
+    <t>Regulations have not curbed the short-term rental problem</t>
+  </si>
+  <si>
+    <t>Development continues to expand, especially in higher income areas</t>
+  </si>
+  <si>
+    <t>/stories#phase_2</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/pop_house.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/housetype.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/housecomp.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/propertyprices.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/mortgage_debt.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/House_Com.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/Social_housing_stock.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_1/DublinCityDestPOWCAR11_0.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig1.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig2.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig5.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig6.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig7.js</t>
+  </si>
+  <si>
+    <t>story-housing1-fig9.js</t>
+  </si>
+  <si>
+    <t>yearly average of "monthly housing unit completions" in Themes data with longer range</t>
+  </si>
+  <si>
+    <t>data is a yearly version of the quarterly "average house prices" data in the Themes page, but is not an average</t>
+  </si>
+  <si>
+    <t>county level breakdown of "population statistics" data on Themes page</t>
+  </si>
+  <si>
+    <t>census year breakdown of house types</t>
+  </si>
+  <si>
+    <t>yearly 2002 - 2007</t>
+  </si>
+  <si>
+    <t>social housing units by LA 1994 - 2016</t>
+  </si>
+  <si>
+    <t>census year breakdown of house tenure by LA</t>
+  </si>
+  <si>
+    <t>POWSCAR subset to only include Eds with # commuters to Dublin City</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/E1071.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/unifinished_estates_2010_bnsd_dublin_area.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/serviced_land_hectares.csv, /data/Stories/Housing/part_2/processed/serviced_land_expected_units.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/home_mortgage_arrears.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/btl_mortgage_arrears.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/social_housing_wait_list.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_2/processed/traveller_accomodation_accomodated.csv</t>
+  </si>
+  <si>
+    <t>story-housing2-fig1.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig2.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig3.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig4.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig5.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig6.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig7.js</t>
+  </si>
+  <si>
+    <t>story-housing2-fig8.js</t>
+  </si>
+  <si>
+    <t>monthly property price index Dublin, rest of Ireland, and national. Monthly 2005-2019 Jan</t>
+  </si>
+  <si>
+    <t>census year numbers of vacant units and % vacant</t>
+  </si>
+  <si>
+    <t>map of unfinshed estates 2010</t>
+  </si>
+  <si>
+    <t>vacant serviced zoned land yearly 2000 - 2012 for 4 LAs and surrounding counties</t>
+  </si>
+  <si>
+    <t>accounts in mortgage arrears monthly Sept 2009 - Dec 2017</t>
+  </si>
+  <si>
+    <t>buy to rent mortgage arrears tri-monthly Jun 2012 - Jun 2018</t>
+  </si>
+  <si>
+    <t>people in social housing nationally every tree years 1991 - 2018</t>
+  </si>
+  <si>
+    <t>unauthorised and accommodated Traveller sites nationally and 4 LAs yearly 2002-2013</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_3/processed/ave_monthly_rent.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_3/processed/homeless_figures_parsed.csv, /data/Stories/Housing/part_3/processed/drhe_homelessness.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_3/processed/Airbnb_listings_Mar2020.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_3/processed/airbnb_counts.csv</t>
+  </si>
+  <si>
+    <t>/data/Stories/Housing/part_3/Dublin_Housing_Task_Force_Q3_2019_T1.geojson, /data/Stories/Housing/part_3/Dublin_Housing_Task_Force_Q3_2019_T2A.geojson</t>
+  </si>
+  <si>
+    <t>individuals and families monthly nationally, June 2014 - Nov 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,8 +1528,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,6 +1619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1364,7 +1664,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1470,6 +1770,27 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
@@ -1510,7 +1831,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1828,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:I22"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
@@ -1958,7 +2279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2002,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2022,7 +2343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.1">
+    <row r="2" spans="1:3" ht="21.75">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2071,7 +2392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23.1">
+    <row r="7" spans="1:3" ht="21.75">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23.1">
+    <row r="11" spans="1:3" ht="21.75">
       <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
@@ -2224,7 +2545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="23.1">
+    <row r="22" spans="1:3" ht="21.75">
       <c r="A22" s="17" t="s">
         <v>74</v>
       </c>
@@ -2273,7 +2594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="23.1">
+    <row r="27" spans="1:3" ht="21.75">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -2385,7 +2706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="23.1">
+    <row r="38" spans="1:3" ht="21.75">
       <c r="A38" s="17" t="s">
         <v>102</v>
       </c>
@@ -2489,7 +2810,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="23.1">
+    <row r="48" spans="1:3" ht="21.75">
       <c r="A48" s="17" t="s">
         <v>121</v>
       </c>
@@ -2527,7 +2848,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="23.1">
+    <row r="52" spans="1:3" ht="21.75">
       <c r="A52" s="17" t="s">
         <v>128</v>
       </c>
@@ -2570,7 +2891,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="23.1">
+    <row r="57" spans="1:3" ht="21.75">
       <c r="A57" s="17" t="s">
         <v>136</v>
       </c>
@@ -2633,107 +2954,107 @@
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="JSON" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" display="JSON" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" display="JSON" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C6" r:id="rId8" display="JSON" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C8" r:id="rId10" display="JSON" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C10" r:id="rId12" display="JSON" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C9" r:id="rId14" display="JSON" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C12" r:id="rId16" display="JSON" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="A13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C13" r:id="rId18" display="JSON" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="A14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C14" r:id="rId20" display="JSON" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="A15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C15" r:id="rId22" display="JSON" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="A16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C16" r:id="rId24" display="JSON" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="A17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C17" r:id="rId26" display="JSON" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="A18" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C18" r:id="rId28" display="JSON" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="A19" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C19" r:id="rId30" display="JSON" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="A20" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C20" r:id="rId32" display="JSON" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="A21" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C21" r:id="rId34" display="JSON" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="A23" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C23" r:id="rId36" display="JSON" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="A24" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C24" r:id="rId38" display="JSON" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="A25" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C25" r:id="rId40" display="JSON" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="A26" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="C26" r:id="rId42" display="JSON" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="A29" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="C29" r:id="rId44" display="JSON" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="A30" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="C30" r:id="rId46" display="JSON" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="A31" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="C31" r:id="rId48" display="JSON" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="A32" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C32" r:id="rId50" display="JSON" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="A33" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="C33" r:id="rId52" display="JSON" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="A34" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="C34" r:id="rId54" display="JSON" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="A35" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="C35" r:id="rId56" display="JSON" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="A36" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="C36" r:id="rId58" display="JSON" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="A37" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="C37" r:id="rId60" display="JSON" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="A39" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="C39" r:id="rId62" display="JSON" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="A40" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="C40" r:id="rId64" display="JSON" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="A41" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="C41" r:id="rId66" display="JSON" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="A42" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="C42" r:id="rId68" display="JSON" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="A43" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="C43" r:id="rId70" display="JSON" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="A44" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="C44" r:id="rId72" display="JSON" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="A45" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="C45" r:id="rId74" display="JSON" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="A46" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="C46" r:id="rId76" display="JSON" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="A47" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="C47" r:id="rId78" display="JSON" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="A49" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="C49" r:id="rId80" display="JSON" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="A50" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="C50" r:id="rId82" display="JSON" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="A51" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="C51" r:id="rId84" display="JSON" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="A53" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="C53" r:id="rId86" display="JSON" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="A54" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="C54" r:id="rId88" display="JSON" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="A55" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="C55" r:id="rId90" display="JSON" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B58" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="C58" r:id="rId92" display="JSON" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="A59" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="C59" r:id="rId94" display="JSON" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="A60" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="C60" r:id="rId96" display="JSON" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="A61" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="C61" r:id="rId98" display="JSON" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="A62" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="C62" r:id="rId100" display="JSON" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="A56" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2" display="JSON"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4" display="JSON"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6" display="JSON"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8" display="JSON"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10" display="JSON"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12" display="JSON"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14" display="JSON"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16" display="JSON"/>
+    <hyperlink ref="A13" r:id="rId17"/>
+    <hyperlink ref="C13" r:id="rId18" display="JSON"/>
+    <hyperlink ref="A14" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20" display="JSON"/>
+    <hyperlink ref="A15" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22" display="JSON"/>
+    <hyperlink ref="A16" r:id="rId23"/>
+    <hyperlink ref="C16" r:id="rId24" display="JSON"/>
+    <hyperlink ref="A17" r:id="rId25"/>
+    <hyperlink ref="C17" r:id="rId26" display="JSON"/>
+    <hyperlink ref="A18" r:id="rId27"/>
+    <hyperlink ref="C18" r:id="rId28" display="JSON"/>
+    <hyperlink ref="A19" r:id="rId29"/>
+    <hyperlink ref="C19" r:id="rId30" display="JSON"/>
+    <hyperlink ref="A20" r:id="rId31"/>
+    <hyperlink ref="C20" r:id="rId32" display="JSON"/>
+    <hyperlink ref="A21" r:id="rId33"/>
+    <hyperlink ref="C21" r:id="rId34" display="JSON"/>
+    <hyperlink ref="A23" r:id="rId35"/>
+    <hyperlink ref="C23" r:id="rId36" display="JSON"/>
+    <hyperlink ref="A24" r:id="rId37"/>
+    <hyperlink ref="C24" r:id="rId38" display="JSON"/>
+    <hyperlink ref="A25" r:id="rId39"/>
+    <hyperlink ref="C25" r:id="rId40" display="JSON"/>
+    <hyperlink ref="A26" r:id="rId41"/>
+    <hyperlink ref="C26" r:id="rId42" display="JSON"/>
+    <hyperlink ref="A29" r:id="rId43"/>
+    <hyperlink ref="C29" r:id="rId44" display="JSON"/>
+    <hyperlink ref="A30" r:id="rId45"/>
+    <hyperlink ref="C30" r:id="rId46" display="JSON"/>
+    <hyperlink ref="A31" r:id="rId47"/>
+    <hyperlink ref="C31" r:id="rId48" display="JSON"/>
+    <hyperlink ref="A32" r:id="rId49"/>
+    <hyperlink ref="C32" r:id="rId50" display="JSON"/>
+    <hyperlink ref="A33" r:id="rId51"/>
+    <hyperlink ref="C33" r:id="rId52" display="JSON"/>
+    <hyperlink ref="A34" r:id="rId53"/>
+    <hyperlink ref="C34" r:id="rId54" display="JSON"/>
+    <hyperlink ref="A35" r:id="rId55"/>
+    <hyperlink ref="C35" r:id="rId56" display="JSON"/>
+    <hyperlink ref="A36" r:id="rId57"/>
+    <hyperlink ref="C36" r:id="rId58" display="JSON"/>
+    <hyperlink ref="A37" r:id="rId59"/>
+    <hyperlink ref="C37" r:id="rId60" display="JSON"/>
+    <hyperlink ref="A39" r:id="rId61"/>
+    <hyperlink ref="C39" r:id="rId62" display="JSON"/>
+    <hyperlink ref="A40" r:id="rId63"/>
+    <hyperlink ref="C40" r:id="rId64" display="JSON"/>
+    <hyperlink ref="A41" r:id="rId65"/>
+    <hyperlink ref="C41" r:id="rId66" display="JSON"/>
+    <hyperlink ref="A42" r:id="rId67"/>
+    <hyperlink ref="C42" r:id="rId68" display="JSON"/>
+    <hyperlink ref="A43" r:id="rId69"/>
+    <hyperlink ref="C43" r:id="rId70" display="JSON"/>
+    <hyperlink ref="A44" r:id="rId71"/>
+    <hyperlink ref="C44" r:id="rId72" display="JSON"/>
+    <hyperlink ref="A45" r:id="rId73"/>
+    <hyperlink ref="C45" r:id="rId74" display="JSON"/>
+    <hyperlink ref="A46" r:id="rId75"/>
+    <hyperlink ref="C46" r:id="rId76" display="JSON"/>
+    <hyperlink ref="A47" r:id="rId77"/>
+    <hyperlink ref="C47" r:id="rId78" display="JSON"/>
+    <hyperlink ref="A49" r:id="rId79"/>
+    <hyperlink ref="C49" r:id="rId80" display="JSON"/>
+    <hyperlink ref="A50" r:id="rId81"/>
+    <hyperlink ref="C50" r:id="rId82" display="JSON"/>
+    <hyperlink ref="A51" r:id="rId83"/>
+    <hyperlink ref="C51" r:id="rId84" display="JSON"/>
+    <hyperlink ref="A53" r:id="rId85"/>
+    <hyperlink ref="C53" r:id="rId86" display="JSON"/>
+    <hyperlink ref="A54" r:id="rId87"/>
+    <hyperlink ref="C54" r:id="rId88" display="JSON"/>
+    <hyperlink ref="A55" r:id="rId89"/>
+    <hyperlink ref="C55" r:id="rId90" display="JSON"/>
+    <hyperlink ref="B58" r:id="rId91"/>
+    <hyperlink ref="C58" r:id="rId92" display="JSON"/>
+    <hyperlink ref="A59" r:id="rId93"/>
+    <hyperlink ref="C59" r:id="rId94" display="JSON"/>
+    <hyperlink ref="A60" r:id="rId95"/>
+    <hyperlink ref="C60" r:id="rId96" display="JSON"/>
+    <hyperlink ref="A61" r:id="rId97"/>
+    <hyperlink ref="C61" r:id="rId98" display="JSON"/>
+    <hyperlink ref="A62" r:id="rId99"/>
+    <hyperlink ref="C62" r:id="rId100" display="JSON"/>
+    <hyperlink ref="A56" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2741,7 +3062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,29 +3120,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:K52"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2880,7 +3201,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60">
+    <row r="3" spans="1:15" ht="61.5">
       <c r="A3" s="32"/>
       <c r="B3" s="33" t="s">
         <v>164</v>
@@ -3391,7 +3712,7 @@
         <v>229</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>25</v>
@@ -3617,68 +3938,45 @@
       </c>
       <c r="K30" s="43"/>
     </row>
-    <row r="31" spans="1:15" ht="20.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:15" s="79" customFormat="1">
+      <c r="C31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.25">
+      <c r="A32" s="5" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="40">
-        <v>1</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K32" s="53" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>261</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
+      <c r="H33" s="42">
+        <v>43633</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>198</v>
+      </c>
       <c r="J33" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K33" s="53" t="s">
         <v>221</v>
@@ -3686,28 +3984,28 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>261</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
       <c r="J34" s="52" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K34" s="53" t="s">
         <v>221</v>
@@ -3715,22 +4013,22 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>261</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -3743,62 +4041,58 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="K36" s="53"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.25">
-      <c r="A38" s="19" t="s">
+      <c r="A36" s="40">
+        <v>4</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="K37" s="53"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.25">
+      <c r="A39" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="53">
-        <v>1</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K39" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>277</v>
@@ -3807,7 +4101,7 @@
         <v>278</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F40" s="53" t="s">
         <v>280</v>
@@ -3815,70 +4109,70 @@
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="68" t="s">
         <v>191</v>
       </c>
       <c r="K40" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="33">
-        <v>3</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="33" t="s">
+      <c r="A41" s="53">
+        <v>2</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
+      <c r="E41" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="69" t="s">
         <v>191</v>
       </c>
       <c r="K41" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="53" t="s">
-        <v>289</v>
+      <c r="E42" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="53"/>
+        <v>286</v>
+      </c>
+      <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
       <c r="J42" s="69" t="s">
@@ -3894,10 +4188,10 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>288</v>
@@ -3906,9 +4200,9 @@
         <v>278</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>290</v>
       </c>
       <c r="G43" s="53"/>
@@ -3925,14 +4219,26 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" spans="1:15" ht="17.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+    <row r="44" spans="1:15">
+      <c r="A44" s="33">
+        <v>5</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" s="53"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
       <c r="J44" s="69" t="s">
@@ -3946,25 +4252,13 @@
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="33">
-        <v>6</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>296</v>
-      </c>
+    <row r="45" spans="1:15" ht="17.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
@@ -3981,51 +4275,57 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D46" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="53" t="s">
         <v>296</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
+      <c r="J46" s="69" t="s">
+        <v>191</v>
+      </c>
       <c r="K46" s="53" t="s">
         <v>221</v>
       </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="D47" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="53" t="s">
-        <v>302</v>
+      <c r="E47" s="33" t="s">
+        <v>299</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="G47" s="53"/>
+        <v>296</v>
+      </c>
+      <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="34"/>
       <c r="J47" s="33"/>
@@ -4033,81 +4333,774 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="23.25">
-      <c r="A49" s="24" t="s">
+    <row r="48" spans="1:15">
+      <c r="A48" s="33">
+        <v>8</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="23.25">
+      <c r="A50" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="43">
+    <row r="51" spans="1:11">
+      <c r="A51" s="43">
         <v>1</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B51" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C51" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D51" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E51" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F51" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G51" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="36" t="s">
+      <c r="H51" s="43"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" s="36" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="43" t="s">
+    <row r="53" spans="1:11">
+      <c r="B53" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" location=".VrNcerKLTIW" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId2" location=".VrNcerKLTIW" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C32" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C33" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C34" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW" xr:uid="{21DECC9C-47EC-44BE-9F30-A266B2D261DB}"/>
+    <hyperlink ref="C12" r:id="rId1" location=".VrNcerKLTIW"/>
+    <hyperlink ref="C13" r:id="rId2" location=".VrNcerKLTIW"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C21" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="C29" r:id="rId12"/>
+    <hyperlink ref="C30" r:id="rId13"/>
+    <hyperlink ref="C33" r:id="rId14"/>
+    <hyperlink ref="C34" r:id="rId15"/>
+    <hyperlink ref="C35" r:id="rId16"/>
+    <hyperlink ref="C36" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId20"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25">
+      <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="72" customFormat="1">
+      <c r="A4" s="72">
+        <v>1</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="72" customFormat="1">
+      <c r="A5" s="72">
+        <v>2</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A6" s="71">
+        <v>3</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A7" s="71">
+        <v>4</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" s="72" customFormat="1">
+      <c r="A8" s="85">
+        <v>5</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="72" customFormat="1">
+      <c r="A9" s="85">
+        <v>6</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="72" customFormat="1">
+      <c r="A10" s="85">
+        <v>7</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A11" s="72">
+        <v>8</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="72" customFormat="1">
+      <c r="A13" s="72">
+        <v>1</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="72" customFormat="1">
+      <c r="A14" s="72">
+        <v>2</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="72" customFormat="1">
+      <c r="A15" s="72">
+        <v>3</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="72" customFormat="1">
+      <c r="A16" s="72">
+        <v>4</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="K16" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="72" customFormat="1">
+      <c r="A17" s="72">
+        <v>5</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="72" customFormat="1">
+      <c r="A18" s="72">
+        <v>6</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="72" customFormat="1">
+      <c r="A19" s="72">
+        <v>7</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="72" customFormat="1">
+      <c r="A20" s="72">
+        <v>8</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="A21" s="84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A22" s="71">
+        <v>1</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="J22" s="75"/>
+      <c r="K22" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+    </row>
+    <row r="23" spans="1:13" s="72" customFormat="1">
+      <c r="A23" s="71">
+        <v>2</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+    </row>
+    <row r="24" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A24" s="72">
+        <v>3</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J24" s="75"/>
+      <c r="K24" s="72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A25" s="72">
+        <v>4</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J25" s="75"/>
+      <c r="K25" s="72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="72" customFormat="1" ht="30">
+      <c r="A26" s="72">
+        <v>5</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J26" s="75"/>
+      <c r="K26" s="72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4352,13 +5345,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7ADA5B-1C79-422C-B3D8-5CED891E2FC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7ADA5B-1C79-422C-B3D8-5CED891E2FC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edfacf83-951b-4dc6-822b-2c02bca35ad8"/>
+    <ds:schemaRef ds:uri="06e0d976-3d31-4bf3-b229-12f0909620f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565A1A7D-0DB7-49F9-A787-5BF8A5576797}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565A1A7D-0DB7-49F9-A787-5BF8A5576797}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="06e0d976-3d31-4bf3-b229-12f0909620f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="308">
   <si>
     <t>Card</t>
   </si>
@@ -998,13 +998,16 @@
   </si>
   <si>
     <t>Some health variable???</t>
+  </si>
+  <si>
+    <t>Automate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,8 +1217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,6 +1303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1332,7 +1347,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1435,6 +1450,16 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
@@ -2785,7 +2810,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3211,129 +3236,138 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="39">
+      <c r="A20" s="71">
         <v>1</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="51" t="s">
+      <c r="G20" s="72"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="70" t="s">
+        <v>307</v>
+      </c>
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="39">
+      <c r="A21" s="71">
         <v>2</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="51" t="s">
+      <c r="G21" s="72"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="70" t="s">
+        <v>307</v>
+      </c>
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="39">
+      <c r="A22" s="71">
         <v>3</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="74">
         <v>43633</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="70" t="s">
+        <v>307</v>
+      </c>
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="39">
+      <c r="A23" s="71">
         <v>4</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="74">
         <v>43633</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="77" t="s">
         <v>218</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>307</v>
       </c>
       <c r="L23" s="22"/>
     </row>
@@ -3400,35 +3434,38 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
+      <c r="A26" s="71">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="74">
         <v>43633</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="72" t="s">
         <v>235</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstehle\BCD\Dashboard_sandbox\bcd-dd-v2.1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losullivan/Documents/repos/bcd-dd-v2.1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
     <sheet name="Statbank" sheetId="3" r:id="rId2"/>
     <sheet name="discontinued_politcal football" sheetId="4" r:id="rId3"/>
     <sheet name="Themes Page" sheetId="1" r:id="rId4"/>
-    <sheet name="Stories" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,9 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +46,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E40" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="308">
   <si>
     <t>Card</t>
   </si>
@@ -545,9 +544,6 @@
     <t>Link to Data Source</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -626,9 +622,6 @@
     <t>http://www.epa.ie/pubs/reports/waste/stats/#.VrNcerKLTIW</t>
   </si>
   <si>
-    <t>themes#environment</t>
-  </si>
-  <si>
     <t>/data/Environment/wastes.csv</t>
   </si>
   <si>
@@ -728,9 +721,6 @@
     <t>https://www.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=RIQ02&amp;ProductID=DB_RI&amp;PLanguage=0</t>
   </si>
   <si>
-    <t>/themes#housing</t>
-  </si>
-  <si>
     <t>/data/Housing/rent_processed.JSON</t>
   </si>
   <si>
@@ -863,9 +853,6 @@
     <t>Population Statistics</t>
   </si>
   <si>
-    <t>themes#demographics</t>
-  </si>
-  <si>
     <t>Dublin 1911-2016</t>
   </si>
   <si>
@@ -914,9 +901,6 @@
     <t>https://statbank.cso.ie/px/pxeirestat/Statire/SelectVarVal/Define.asp?maintable=QLF08&amp;PLanguage=0</t>
   </si>
   <si>
-    <t>themes#Economy</t>
-  </si>
-  <si>
     <t>/data/Economy/employment.csv</t>
   </si>
   <si>
@@ -1001,9 +985,6 @@
     <t>https://www.gov.ie/en/organisation/department-of-health/?referrer=/*</t>
   </si>
   <si>
-    <t>theme/Health</t>
-  </si>
-  <si>
     <t>/data/health/trolleys_transposed.csv</t>
   </si>
   <si>
@@ -1019,299 +1000,14 @@
     <t>Some health variable???</t>
   </si>
   <si>
-    <t>http://insideairbnb.com/get-the-data.html</t>
-  </si>
-  <si>
-    <t>https://data-housinggovie.opendata.arcgis.com/datasets</t>
-  </si>
-  <si>
-    <t>data current as of Q3 2019 - archive back to Q4 2017 to be downloaded</t>
-  </si>
-  <si>
-    <t>/stories#phase_3</t>
-  </si>
-  <si>
-    <t>Rent prices jumped, particularly in Dublin</t>
-  </si>
-  <si>
-    <t>All counties + whole state minus Dublin, Q4 2007-Q1 2019</t>
-  </si>
-  <si>
-    <t>story-housing3-fig1.js</t>
-  </si>
-  <si>
-    <t>data is different from above</t>
-  </si>
-  <si>
-    <t>what is source?</t>
-  </si>
-  <si>
-    <t>New and second-hand home prices rose dramatically</t>
-  </si>
-  <si>
-    <t>/stories#phase_1</t>
-  </si>
-  <si>
-    <t>story-housing1-fig4.js</t>
-  </si>
-  <si>
-    <t>/themes#housing, /storiesphase_2</t>
-  </si>
-  <si>
-    <t>Housing unit completions outnumbered new households</t>
-  </si>
-  <si>
-    <t>story-housing1-fig3.js</t>
-  </si>
-  <si>
-    <t>story-housing3-fig4.js</t>
-  </si>
-  <si>
-    <t>how to auto update with new data?</t>
-  </si>
-  <si>
-    <t>add to themes page</t>
-  </si>
-  <si>
-    <t>monthly updates in individual geojson - this is the most recent from Mar 2020</t>
-  </si>
-  <si>
-    <t>story-housing3-fig3.js</t>
-  </si>
-  <si>
-    <t>monthly updates, processed in R for plotly</t>
-  </si>
-  <si>
-    <t>story-housing3-fig5.js</t>
-  </si>
-  <si>
-    <t>Dublin Housing Task Force quarterly updates of Tier 1 and Tier 2A housing development proposals from Q4 2019</t>
-  </si>
-  <si>
-    <t>phase 1</t>
-  </si>
-  <si>
-    <t>phase 2</t>
-  </si>
-  <si>
-    <t>phase 3</t>
-  </si>
-  <si>
-    <t>Population and households surged from 1991 - 2006, increasing housing demand</t>
-  </si>
-  <si>
-    <t>Dublin area housing type diversity also increased</t>
-  </si>
-  <si>
-    <t>Cost versus wage discrepancy increased mortgage debt</t>
-  </si>
-  <si>
-    <t>Demand for social housing and long-term rentals increased</t>
-  </si>
-  <si>
-    <t>High prices led to more renting, less social housing</t>
-  </si>
-  <si>
-    <t>Urban prices drove sprawl and long-distance commuting</t>
-  </si>
-  <si>
-    <t>After rapid growth, property prices collapsed</t>
-  </si>
-  <si>
-    <t>More homes were being built than demanded, leading to high vacancy rates</t>
-  </si>
-  <si>
-    <t>Estates remained unfinished throughout the country</t>
-  </si>
-  <si>
-    <t>Non-residential properties were also left vacant</t>
-  </si>
-  <si>
-    <t>High mortgage rates meant many could not afford payments</t>
-  </si>
-  <si>
-    <t>Buy-to-rent mortgages experienced higher rates of arrears</t>
-  </si>
-  <si>
-    <t>High housing costs drove many more to seek social housing</t>
-  </si>
-  <si>
-    <t>Housing assistance for Traveller families also declined</t>
-  </si>
-  <si>
-    <t>High rents and comparatively low wages drove homelessness rates higher</t>
-  </si>
-  <si>
-    <t>The short term rental market displaces housing stock for residents</t>
-  </si>
-  <si>
-    <t>Regulations have not curbed the short-term rental problem</t>
-  </si>
-  <si>
-    <t>Development continues to expand, especially in higher income areas</t>
-  </si>
-  <si>
-    <t>/stories#phase_2</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/pop_house.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/housetype.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/housecomp.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/propertyprices.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/mortgage_debt.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/House_Com.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/Social_housing_stock.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_1/DublinCityDestPOWCAR11_0.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig1.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig2.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig5.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig6.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig7.js</t>
-  </si>
-  <si>
-    <t>story-housing1-fig9.js</t>
-  </si>
-  <si>
-    <t>yearly average of "monthly housing unit completions" in Themes data with longer range</t>
-  </si>
-  <si>
-    <t>data is a yearly version of the quarterly "average house prices" data in the Themes page, but is not an average</t>
-  </si>
-  <si>
-    <t>county level breakdown of "population statistics" data on Themes page</t>
-  </si>
-  <si>
-    <t>census year breakdown of house types</t>
-  </si>
-  <si>
-    <t>yearly 2002 - 2007</t>
-  </si>
-  <si>
-    <t>social housing units by LA 1994 - 2016</t>
-  </si>
-  <si>
-    <t>census year breakdown of house tenure by LA</t>
-  </si>
-  <si>
-    <t>POWSCAR subset to only include Eds with # commuters to Dublin City</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/E1071.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/unifinished_estates_2010_bnsd_dublin_area.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/serviced_land_hectares.csv, /data/Stories/Housing/part_2/processed/serviced_land_expected_units.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/home_mortgage_arrears.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/btl_mortgage_arrears.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/social_housing_wait_list.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_2/processed/traveller_accomodation_accomodated.csv</t>
-  </si>
-  <si>
-    <t>story-housing2-fig1.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig2.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig3.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig4.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig5.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig6.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig7.js</t>
-  </si>
-  <si>
-    <t>story-housing2-fig8.js</t>
-  </si>
-  <si>
-    <t>monthly property price index Dublin, rest of Ireland, and national. Monthly 2005-2019 Jan</t>
-  </si>
-  <si>
-    <t>census year numbers of vacant units and % vacant</t>
-  </si>
-  <si>
-    <t>map of unfinshed estates 2010</t>
-  </si>
-  <si>
-    <t>vacant serviced zoned land yearly 2000 - 2012 for 4 LAs and surrounding counties</t>
-  </si>
-  <si>
-    <t>accounts in mortgage arrears monthly Sept 2009 - Dec 2017</t>
-  </si>
-  <si>
-    <t>buy to rent mortgage arrears tri-monthly Jun 2012 - Jun 2018</t>
-  </si>
-  <si>
-    <t>people in social housing nationally every tree years 1991 - 2018</t>
-  </si>
-  <si>
-    <t>unauthorised and accommodated Traveller sites nationally and 4 LAs yearly 2002-2013</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_3/processed/ave_monthly_rent.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_3/processed/homeless_figures_parsed.csv, /data/Stories/Housing/part_3/processed/drhe_homelessness.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_3/processed/Airbnb_listings_Mar2020.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_3/processed/airbnb_counts.csv</t>
-  </si>
-  <si>
-    <t>/data/Stories/Housing/part_3/Dublin_Housing_Task_Force_Q3_2019_T1.geojson, /data/Stories/Housing/part_3/Dublin_Housing_Task_Force_Q3_2019_T2A.geojson</t>
-  </si>
-  <si>
-    <t>individuals and families monthly nationally, June 2014 - Nov 2018</t>
+    <t>Automate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,13 +1018,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1529,23 +1218,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1621,7 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,161 +1334,145 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="11">
+    <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2156,166 +1824,166 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="45">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,27 +1996,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21.75">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2359,7 +2027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2370,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2381,7 +2049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2392,12 +2060,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2408,7 +2076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2419,7 +2087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,12 +2098,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2446,7 +2114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2457,7 +2125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2468,7 +2136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -2479,7 +2147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2490,7 +2158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +2169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -2512,7 +2180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -2523,7 +2191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2534,7 +2202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2545,12 +2213,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -2561,7 +2229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2572,7 +2240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -2583,7 +2251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2594,20 +2262,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2618,7 +2286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -2629,7 +2297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2640,7 +2308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2651,7 +2319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2662,7 +2330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -2673,7 +2341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -2684,7 +2352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -2695,7 +2363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -2706,12 +2374,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
@@ -2722,7 +2390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -2733,7 +2401,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -2744,7 +2412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2755,7 +2423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -2766,7 +2434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -2777,7 +2445,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
@@ -2788,7 +2456,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
@@ -2799,7 +2467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2810,12 +2478,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.75">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2826,7 +2494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -2837,7 +2505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2848,12 +2516,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21.75">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -2864,7 +2532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -2875,7 +2543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -2886,17 +2554,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21.75">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -2907,7 +2575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -2918,7 +2586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -2929,7 +2597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
@@ -2940,7 +2608,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
@@ -3069,12 +2737,12 @@
       <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
@@ -3085,7 +2753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -3096,7 +2764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -3107,7 +2775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -3139,1277 +2807,1180 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="10" max="10" width="37.5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="46" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="61.5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="40">
+      <c r="C10" s="40"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:14" ht="165" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33" t="s">
+      <c r="B11" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="195">
-      <c r="A11" s="10">
+      <c r="C11" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="53">
+        <v>4</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="56">
+        <v>43633</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>6</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>7</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="41">
+        <v>43633</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="71">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="B20" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="71">
+        <v>2</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="71">
+        <v>3</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="74">
         <v>43633</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="60">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="H22" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="71">
+        <v>4</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="74">
         <v>43633</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="60">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="45">
+      <c r="H23" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>6</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="41">
         <v>43633</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="54">
-        <v>4</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="H25" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="I25" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="71">
+        <v>7</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="74">
         <v>43633</v>
       </c>
-      <c r="I14" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="51">
-        <v>5</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="51">
-        <v>6</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="60">
-        <v>7</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.25">
-      <c r="A19" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="40">
-        <v>1</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H22" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="40">
-        <v>4</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" ht="45">
-      <c r="A24" s="40">
-        <v>5</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="40">
-        <v>6</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="H26" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="40">
-        <v>7</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="K26" s="70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="F28" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="L28" s="11">
         <v>43910</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="45">
-        <v>43633</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="44">
+        <v>43633</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="43" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="39">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="C32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="45">
+      <c r="F32" s="32"/>
+      <c r="G32" s="41">
         <v>43633</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:15" s="79" customFormat="1">
-      <c r="C31" s="80"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.25">
-      <c r="A32" s="5" t="s">
+      <c r="H32" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="51" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="40">
+      <c r="J32" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="39">
+        <v>2</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="39">
+        <v>3</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <v>4</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="52"/>
+    </row>
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="52">
         <v>1</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="42">
-        <v>43633</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K33" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="40">
+      <c r="B39" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="52">
         <v>2</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="40">
+      <c r="B40" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
         <v>3</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="40">
+      <c r="B41" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
         <v>4</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K36" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="K37" s="53"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.25">
-      <c r="A39" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="53">
+      <c r="B42" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
+        <v>5</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
+        <v>6</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>7</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
+        <v>8</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="42">
         <v>1</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="53">
-        <v>2</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="33">
-        <v>3</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="33">
-        <v>4</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="33">
-        <v>5</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-    </row>
-    <row r="45" spans="1:15" ht="17.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="33">
-        <v>6</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K46" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="33">
-        <v>7</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="33">
-        <v>8</v>
-      </c>
-      <c r="B48" s="33" t="s">
+      <c r="B50" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C50" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="D48" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="53" t="s">
+      <c r="D50" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="E50" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="23.25">
-      <c r="A50" s="24" t="s">
+      <c r="F50" s="42" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="43">
-        <v>1</v>
-      </c>
-      <c r="B51" s="43" t="s">
+      <c r="G50" s="42"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="50" t="s">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4426,681 +3997,15 @@
     <hyperlink ref="C28" r:id="rId11"/>
     <hyperlink ref="C29" r:id="rId12"/>
     <hyperlink ref="C30" r:id="rId13"/>
-    <hyperlink ref="C33" r:id="rId14"/>
-    <hyperlink ref="C34" r:id="rId15"/>
-    <hyperlink ref="C35" r:id="rId16"/>
-    <hyperlink ref="C36" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C33" r:id="rId15"/>
+    <hyperlink ref="C34" r:id="rId16"/>
+    <hyperlink ref="C35" r:id="rId17"/>
     <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" max="1048575" man="1"/>
-  </colBreaks>
   <legacyDrawing r:id="rId20"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.25">
-      <c r="A2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" s="72" customFormat="1">
-      <c r="A4" s="72">
-        <v>1</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="72" customFormat="1">
-      <c r="A5" s="72">
-        <v>2</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A6" s="71">
-        <v>3</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A7" s="71">
-        <v>4</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" s="72" customFormat="1">
-      <c r="A8" s="85">
-        <v>5</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="72" customFormat="1">
-      <c r="A9" s="85">
-        <v>6</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="72" customFormat="1">
-      <c r="A10" s="85">
-        <v>7</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="K10" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A11" s="72">
-        <v>8</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="72" customFormat="1">
-      <c r="A13" s="72">
-        <v>1</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="72" customFormat="1">
-      <c r="A14" s="72">
-        <v>2</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="K14" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="72" customFormat="1">
-      <c r="A15" s="72">
-        <v>3</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>347</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>389</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="72" customFormat="1">
-      <c r="A16" s="72">
-        <v>4</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>390</v>
-      </c>
-      <c r="K16" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="72" customFormat="1">
-      <c r="A17" s="72">
-        <v>5</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>391</v>
-      </c>
-      <c r="K17" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="72" customFormat="1">
-      <c r="A18" s="72">
-        <v>6</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="72" customFormat="1">
-      <c r="A19" s="72">
-        <v>7</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="K19" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="72" customFormat="1">
-      <c r="A20" s="72">
-        <v>8</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>386</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="K20" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="84" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A22" s="71">
-        <v>1</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="I22" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="1:13" s="72" customFormat="1">
-      <c r="A23" s="71">
-        <v>2</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A24" s="72">
-        <v>3</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A25" s="72">
-        <v>4</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J25" s="75"/>
-      <c r="K25" s="72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="72" customFormat="1" ht="30">
-      <c r="A26" s="72">
-        <v>5</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5322,15 +4227,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="06e0d976-3d31-4bf3-b229-12f0909620f9">
@@ -5342,6 +4238,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5364,14 +4269,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565A1A7D-0DB7-49F9-A787-5BF8A5576797}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5379,4 +4276,12 @@
     <ds:schemaRef ds:uri="06e0d976-3d31-4bf3-b229-12f0909620f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1149C42-F0A2-43BA-9A37-66E82BA50BBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
   <si>
     <t>Card</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>Automate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automate </t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,6 +1312,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1347,13 +1356,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
@@ -1450,16 +1458,50 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
@@ -1837,31 +1879,31 @@
   </cols>
   <sheetData>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1869,25 +1911,25 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>2016</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1895,52 +1937,52 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
@@ -1951,39 +1993,39 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,15 +2046,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2061,7 +2103,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2099,7 +2141,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2214,7 +2256,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2263,15 +2305,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2375,7 +2417,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2479,7 +2521,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2517,7 +2559,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2560,7 +2602,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2809,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2821,9 +2863,10 @@
     <col min="5" max="5" width="41.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
     <col min="10" max="10" width="37.5" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2831,554 +2874,563 @@
       <c r="A1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="46" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="165" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="43">
         <v>43633</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="43">
         <v>43633</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="43">
         <v>43633</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="A14" s="52">
         <v>4</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="55">
         <v>43633</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="49">
         <v>5</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="43">
         <v>43633</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>6</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="43">
         <v>43633</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
+      <c r="A17" s="58">
         <v>7</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <v>43633</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="40" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="71">
         <v>1</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76" t="s">
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="71">
         <v>2</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76" t="s">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="77" t="s">
+      <c r="J21" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="71">
         <v>3</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="76">
         <v>43633</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="71">
         <v>4</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="76">
         <v>43633</v>
       </c>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="39">
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="77">
         <v>5</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="78" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -3391,24 +3443,25 @@
         <v>216</v>
       </c>
       <c r="G24" s="32"/>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="77">
         <v>6</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="78" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -3420,51 +3473,52 @@
       <c r="F25" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="80">
         <v>43633</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="79" t="s">
         <v>234</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="71">
         <v>7</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G26" s="76">
         <v>43633</v>
       </c>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="75" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3472,30 +3526,30 @@
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="51" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>43910</v>
       </c>
     </row>
@@ -3503,29 +3557,29 @@
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44">
+      <c r="F29" s="41"/>
+      <c r="G29" s="43">
         <v>43633</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="41" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3533,454 +3587,466 @@
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44">
+      <c r="F30" s="41"/>
+      <c r="G30" s="43">
         <v>43633</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="J30" s="42"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="39">
+      <c r="A32" s="38">
         <v>1</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="41">
+      <c r="F32" s="81"/>
+      <c r="G32" s="83">
         <v>43633</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="J32" s="52" t="s">
+      <c r="J32" s="86" t="s">
         <v>218</v>
       </c>
+      <c r="K32" s="75" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+      <c r="A33" s="38">
         <v>2</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="51" t="s">
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="J33" s="52" t="s">
+      <c r="J33" s="86" t="s">
         <v>218</v>
       </c>
+      <c r="K33" s="75" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="39">
+      <c r="A34" s="38">
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="51" t="s">
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="86" t="s">
         <v>218</v>
       </c>
+      <c r="K34" s="75" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="39">
+      <c r="A35" s="38">
         <v>4</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="51" t="s">
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="J35" s="52" t="s">
+      <c r="J35" s="86" t="s">
         <v>218</v>
       </c>
+      <c r="K35" s="75" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J36" s="52"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <v>1</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67" t="s">
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="J39" s="52" t="s">
+      <c r="J39" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="52">
+      <c r="A40" s="51">
         <v>2</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="68" t="s">
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>3</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="68" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>4</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="68" t="s">
+      <c r="F42" s="51"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>5</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="68" t="s">
+      <c r="F43" s="51"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J43" s="52" t="s">
+      <c r="J43" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
     </row>
     <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="68" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J44" s="52" t="s">
+      <c r="J44" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>6</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="68" t="s">
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="52" t="s">
+      <c r="J45" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>7</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="52" t="s">
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>8</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="52" t="s">
+      <c r="F47" s="51"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>1</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="316">
   <si>
     <t>Card</t>
   </si>
@@ -1004,13 +1004,79 @@
   </si>
   <si>
     <t xml:space="preserve">Automate </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Employment in services</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Employment in broad sector</t>
+    </r>
+  </si>
+  <si>
+    <t>Dublin airport numbers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dublin port tonnage</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.dublindashboard.ie/DublinEconomicMon/stats</t>
+  </si>
+  <si>
+    <t>links broekn</t>
+  </si>
+  <si>
+    <t>links broekn (acc disabled)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,8 +1292,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,6 +1394,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1343,7 +1425,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -1355,8 +1437,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1502,8 +1586,20 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -1511,6 +1607,8 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2849,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4001,52 +4099,160 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="90"/>
+      <c r="B50" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50" s="88"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="87"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="90"/>
+      <c r="B51" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="87"/>
+    </row>
+    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="90"/>
+      <c r="B52" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="87"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="90"/>
+      <c r="B53" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="88"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="87"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="90"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="87"/>
+    </row>
+    <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="41">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="41">
         <v>1</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B57" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C57" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D57" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E57" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F57" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="41" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4068,10 +4274,12 @@
     <hyperlink ref="C34" r:id="rId16"/>
     <hyperlink ref="C35" r:id="rId17"/>
     <hyperlink ref="C11" r:id="rId18" location=".VrNcerKLTIW"/>
+    <hyperlink ref="D50" r:id="rId19"/>
+    <hyperlink ref="D51:D53" r:id="rId20" display="http://www.dublindashboard.ie/DublinEconomicMon/stats"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/docs/DCD_DataSheet.xlsx
+++ b/docs/DCD_DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22420" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="960" yWindow="-20540" windowWidth="38400" windowHeight="20540" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="315">
   <si>
     <t>Card</t>
   </si>
@@ -1066,10 +1066,7 @@
     <t>http://www.dublindashboard.ie/DublinEconomicMon/stats</t>
   </si>
   <si>
-    <t>links broekn</t>
-  </si>
-  <si>
-    <t>links broekn (acc disabled)</t>
+    <t>Broad sector data only available for short time, file needs a line of processing manually</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1300,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,12 +1391,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1440,7 +1431,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1586,18 +1577,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
@@ -2949,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4111,7 +4099,7 @@
       <c r="I48" s="31"/>
       <c r="J48" s="51"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="51"/>
@@ -4123,96 +4111,95 @@
       <c r="I49" s="31"/>
       <c r="J49" s="51"/>
     </row>
-    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91" t="s">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="87"/>
+      <c r="B50" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="87"/>
-    </row>
-    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91" t="s">
+      <c r="E50" s="69"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="91"/>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="87"/>
+      <c r="B51" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="91"/>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="87"/>
+      <c r="B52" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="E51" s="88"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="87"/>
-    </row>
-    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
-      <c r="B52" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="D52" s="92" t="s">
+      <c r="E52" s="69"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="87"/>
+      <c r="B53" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="E52" s="88"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="87"/>
-    </row>
-    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="87"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="87"/>
-    </row>
-    <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="E53" s="69"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="91"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="87"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="91"/>
+    </row>
+    <row r="56" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="41">
         <v>1</v>
       </c>
@@ -4236,12 +4223,12 @@
       <c r="I57" s="41"/>
       <c r="J57" s="41"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="41" t="s">
         <v>306</v>
       </c>
